--- a/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-07-06.xlsx
+++ b/Impfquotenmonitoring/raw_data/RKI_COVID19_Impfquotenmonitoring_2021-07-06.xlsx
@@ -3,26 +3,26 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20373"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA52EC-D7BF-4D3D-90A6-3D334E85BE95}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11CB320F-B123-435A-A274-4B83DF7A8E98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="110" windowWidth="18840" windowHeight="5250" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="18840" windowHeight="5250" tabRatio="825" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Erläuterung" sheetId="9" r:id="rId1"/>
-    <sheet name="Impfquote_bis_einschl_04.07.21" sheetId="12" r:id="rId2"/>
-    <sheet name="Impfstoff_bis_einschl_04.07.21" sheetId="14" r:id="rId3"/>
+    <sheet name="Impfquote_bis_einschl_05.07.21" sheetId="12" r:id="rId2"/>
+    <sheet name="Impfstoff_bis_einschl_05.07.21" sheetId="14" r:id="rId3"/>
     <sheet name="Impfungen_proTag" sheetId="13" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_04.07.21!#REF!</definedName>
-    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_04.07.21!#REF!</definedName>
+    <definedName name="Bundesländer001" localSheetId="1">Impfquote_bis_einschl_05.07.21!#REF!</definedName>
+    <definedName name="Bundesländer001_1" localSheetId="1">Impfquote_bis_einschl_05.07.21!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="277">
   <si>
     <t>Bayern</t>
   </si>
@@ -219,16 +219,10 @@
     <t>Die Daten der niedergelassenen Ärzteschaft werden in Form zwei separater Datenpakete übermittelt: Daten aufgeschlüsselt nach Impfstoff (verfügbar seit Impftag 10.03.2021) und Daten aufgeschlüsselt nach Altersgruppe (&lt;18, 18-59 und 60+ Jahre; Daten verfügbar seit Impftag 26.03.2021).</t>
   </si>
   <si>
-    <t>Datenstand: 05.07.21, 08:00 Uhr</t>
-  </si>
-  <si>
-    <t>Impfquote bundesweit und nach Altersgruppe (&lt;18, 18-59, 60+ Jahre) über alle Impfstellen bis einschließlich 04.07.21 (Impfquote_bis_einschl_04.07.21)</t>
-  </si>
-  <si>
-    <t>Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 04.07.21 durchgeführt und bis zum 05.07.21, 08:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten.</t>
-  </si>
-  <si>
-    <t>Anzahl Impfungen nach Impfstoff über alle Impfstellen bis einschließlich 04.07.21 (Impfstoff_bis_einschl_04.07.21)</t>
+    <t>Impfquote bundesweit und nach Altersgruppe (&lt;18, 18-59, 60+ Jahre) über alle Impfstellen bis einschließlich 05.07.21 (Impfquote_bis_einschl_05.07.21)</t>
+  </si>
+  <si>
+    <t>Anzahl Impfungen nach Impfstoff über alle Impfstellen bis einschließlich 05.07.21 (Impfstoff_bis_einschl_05.07.21)</t>
   </si>
   <si>
     <t>-</t>
@@ -828,6 +822,9 @@
     <t>04.07.2021</t>
   </si>
   <si>
+    <t>05.07.2021</t>
+  </si>
+  <si>
     <t>Gesamt</t>
   </si>
   <si>
@@ -847,6 +844,15 @@
   </si>
   <si>
     <t>Gesamtzahl verabreichter Impfstoffdosen</t>
+  </si>
+  <si>
+    <t>Die kumulative Zahl der Impfungen umfasst alle Impfungen, die bis einschließlich 05.07.21 durchgeführt und bis zum 06.07.21, 14:00 Uhr, dem RKI gemeldet wurden. Nachmeldungen und Datenkorrekturen aus zurückliegenden Tagen sind in der kumulativen Zahl der Impfungen enthalten.</t>
+  </si>
+  <si>
+    <t>Datenstand: 06.07.21, 14:00 Uhr</t>
+  </si>
+  <si>
+    <t>HINWEIS: Aufgrund einer technischen Störung wurden für den Impftag 05.07.2021 Daten aus einigen Bundesländer nicht vollständig an das RKI übermittelt.</t>
   </si>
 </sst>
 </file>
@@ -857,7 +863,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="120">
+  <fonts count="124">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1322,38 +1328,6 @@
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -1370,6 +1344,54 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
@@ -1734,7 +1756,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="125">
+  <borders count="129">
     <border>
       <left/>
       <right/>
@@ -2047,6 +2069,66 @@
       </top>
       <bottom style="thin">
         <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -3558,7 +3640,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="205">
+  <cellXfs count="210">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
@@ -3973,16 +4055,16 @@
     <xf numFmtId="3" fontId="95" fillId="0" borderId="100" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="96" fillId="0" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="97" fillId="0" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="98" fillId="0" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="99" fillId="0" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="96" fillId="52" borderId="101" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="97" fillId="53" borderId="102" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="98" fillId="54" borderId="103" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="99" fillId="55" borderId="104" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="100" fillId="0" borderId="105" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3997,120 +4079,107 @@
     <xf numFmtId="3" fontId="103" fillId="0" borderId="108" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="104" fillId="52" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="105" fillId="53" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="106" fillId="54" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="107" fillId="55" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="108" fillId="56" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="109" fillId="57" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="110" fillId="58" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="111" fillId="59" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="112" fillId="60" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="113" fillId="61" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="114" fillId="62" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="115" fillId="63" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="116" fillId="64" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="117" fillId="65" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="118" fillId="66" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="119" fillId="67" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="104" fillId="0" borderId="109" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="105" fillId="0" borderId="110" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="106" fillId="0" borderId="111" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="107" fillId="0" borderId="112" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="108" fillId="0" borderId="113" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="109" fillId="0" borderId="114" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="110" fillId="0" borderId="115" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="111" fillId="0" borderId="116" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="112" fillId="56" borderId="117" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="113" fillId="57" borderId="118" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="114" fillId="58" borderId="119" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="115" fillId="59" borderId="120" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="116" fillId="60" borderId="121" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="117" fillId="61" borderId="122" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="118" fillId="62" borderId="123" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="119" fillId="63" borderId="124" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="120" fillId="64" borderId="125" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="121" fillId="65" borderId="126" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="122" fillId="66" borderId="127" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="123" fillId="67" borderId="128" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -4120,6 +4189,34 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -4472,12 +4569,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5241AA5B-8CBB-47B1-9317-352256D0A517}">
   <dimension ref="A1:C28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="214.54296875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="11.453125" style="1"/>
+    <col min="1" max="1" width="214.5703125" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -4492,7 +4591,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
-        <v>65</v>
+        <v>275</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="9"/>
@@ -4504,12 +4603,12 @@
     </row>
     <row r="5" spans="1:3" ht="18" customHeight="1">
       <c r="A5" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="29.25" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>67</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -4527,7 +4626,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="14" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -4553,7 +4652,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="29">
+    <row r="20" spans="1:1" ht="30">
       <c r="A20" s="13" t="s">
         <v>64</v>
       </c>
@@ -4593,53 +4692,55 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47A1EB7E-F725-49E9-9B87-E64B6D1D2BBC}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.7265625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" style="4" customWidth="1"/>
-    <col min="3" max="3" width="18.1796875" style="4" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" style="4" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="4" customWidth="1"/>
-    <col min="6" max="8" width="11.453125" style="4"/>
+    <col min="1" max="1" width="3.7109375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="25.5703125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="13.42578125" style="4" customWidth="1"/>
+    <col min="5" max="5" width="13.5703125" style="4" customWidth="1"/>
+    <col min="6" max="8" width="11.42578125" style="4"/>
     <col min="9" max="9" width="13" style="4" customWidth="1"/>
-    <col min="10" max="10" width="12.26953125" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="4" customWidth="1"/>
     <col min="11" max="11" width="10" style="4" customWidth="1"/>
-    <col min="12" max="14" width="11.453125" style="4"/>
-    <col min="15" max="15" width="12.7265625" style="4" customWidth="1"/>
-    <col min="16" max="16" width="12.54296875" style="4" customWidth="1"/>
-    <col min="17" max="17" width="9.54296875" style="4" customWidth="1"/>
-    <col min="18" max="18" width="12.81640625" style="4" customWidth="1"/>
-    <col min="19" max="19" width="11.453125" style="4"/>
-    <col min="20" max="20" width="18.453125" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="11.453125" style="4"/>
+    <col min="12" max="14" width="11.42578125" style="4"/>
+    <col min="15" max="15" width="12.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="12.5703125" style="4" customWidth="1"/>
+    <col min="17" max="17" width="9.5703125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="12.85546875" style="4" customWidth="1"/>
+    <col min="19" max="19" width="11.42578125" style="4"/>
+    <col min="20" max="20" width="18.42578125" style="4" customWidth="1"/>
+    <col min="21" max="16384" width="11.42578125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="15" customHeight="1">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
-      <c r="C1" s="186" t="s">
+      <c r="C1" s="190" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="187" t="s">
+      <c r="D1" s="191" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="187" t="s">
+      <c r="E1" s="191" t="s">
         <v>48</v>
       </c>
-      <c r="F1" s="186" t="s">
+      <c r="F1" s="190" t="s">
         <v>59</v>
       </c>
-      <c r="G1" s="186"/>
-      <c r="H1" s="186"/>
-      <c r="I1" s="190"/>
-      <c r="J1" s="180" t="s">
+      <c r="G1" s="190"/>
+      <c r="H1" s="190"/>
+      <c r="I1" s="194"/>
+      <c r="J1" s="184" t="s">
         <v>58</v>
       </c>
-      <c r="K1" s="181"/>
-      <c r="L1" s="181"/>
-      <c r="M1" s="182"/>
+      <c r="K1" s="185"/>
+      <c r="L1" s="185"/>
+      <c r="M1" s="186"/>
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="19" t="s">
@@ -4648,24 +4749,24 @@
       <c r="B2" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="186"/>
-      <c r="D2" s="188"/>
-      <c r="E2" s="188"/>
-      <c r="F2" s="186"/>
-      <c r="G2" s="186"/>
-      <c r="H2" s="186"/>
-      <c r="I2" s="190"/>
-      <c r="J2" s="183"/>
-      <c r="K2" s="184"/>
-      <c r="L2" s="184"/>
-      <c r="M2" s="185"/>
+      <c r="C2" s="190"/>
+      <c r="D2" s="192"/>
+      <c r="E2" s="192"/>
+      <c r="F2" s="190"/>
+      <c r="G2" s="190"/>
+      <c r="H2" s="190"/>
+      <c r="I2" s="194"/>
+      <c r="J2" s="187"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="189"/>
     </row>
     <row r="3" spans="1:13" ht="35.25" customHeight="1">
       <c r="A3" s="20"/>
       <c r="B3" s="20"/>
-      <c r="C3" s="186"/>
-      <c r="D3" s="189"/>
-      <c r="E3" s="189"/>
+      <c r="C3" s="190"/>
+      <c r="D3" s="193"/>
+      <c r="E3" s="193"/>
       <c r="F3" s="21" t="s">
         <v>15</v>
       </c>
@@ -4699,37 +4800,37 @@
         <v>46</v>
       </c>
       <c r="C4" s="29">
-        <v>10199280</v>
+        <v>10281717</v>
       </c>
       <c r="D4" s="29">
-        <v>6189059</v>
+        <v>6216722</v>
       </c>
       <c r="E4" s="29">
-        <v>4248927</v>
+        <v>4305883</v>
       </c>
       <c r="F4" s="53">
-        <v>55.8</v>
+        <v>56</v>
       </c>
       <c r="G4" s="53">
-        <v>4.4000000000000004</v>
+        <v>4.5</v>
       </c>
       <c r="H4" s="53">
-        <v>55.6</v>
+        <v>55.9</v>
       </c>
       <c r="I4" s="53">
-        <v>82.4</v>
+        <v>82.5</v>
       </c>
       <c r="J4" s="53">
-        <v>38.299999999999997</v>
+        <v>38.799999999999997</v>
       </c>
       <c r="K4" s="53">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L4" s="53">
-        <v>37</v>
+        <v>37.6</v>
       </c>
       <c r="M4" s="53">
-        <v>64.2</v>
+        <v>64.900000000000006</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="16.5" customHeight="1">
@@ -4740,37 +4841,37 @@
         <v>0</v>
       </c>
       <c r="C5" s="30">
-        <v>11894775</v>
+        <v>11978523</v>
       </c>
       <c r="D5" s="30">
-        <v>7143757</v>
+        <v>7195065</v>
       </c>
       <c r="E5" s="30">
-        <v>5008201</v>
+        <v>5042845</v>
       </c>
       <c r="F5" s="32">
+        <v>54.8</v>
+      </c>
+      <c r="G5" s="32">
+        <v>3.4</v>
+      </c>
+      <c r="H5" s="32">
         <v>54.4</v>
       </c>
-      <c r="G5" s="32">
-        <v>3.3</v>
-      </c>
-      <c r="H5" s="32">
-        <v>53.9</v>
-      </c>
       <c r="I5" s="32">
-        <v>81</v>
+        <v>81.099999999999994</v>
       </c>
       <c r="J5" s="32">
-        <v>38.200000000000003</v>
+        <v>38.4</v>
       </c>
       <c r="K5" s="32">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="L5" s="32">
-        <v>35.799999999999997</v>
+        <v>36</v>
       </c>
       <c r="M5" s="32">
-        <v>65.5</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="16.5" customHeight="1">
@@ -4781,37 +4882,37 @@
         <v>2</v>
       </c>
       <c r="C6" s="31">
-        <v>3347406</v>
+        <v>3376482</v>
       </c>
       <c r="D6" s="31">
-        <v>2052019</v>
+        <v>2061555</v>
       </c>
       <c r="E6" s="31">
-        <v>1368668</v>
+        <v>1389336</v>
       </c>
       <c r="F6" s="33">
-        <v>55.9</v>
+        <v>56.2</v>
       </c>
       <c r="G6" s="57">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="H6" s="57">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="I6" s="57">
         <v>84.4</v>
       </c>
       <c r="J6" s="33">
-        <v>37.299999999999997</v>
+        <v>37.9</v>
       </c>
       <c r="K6" s="57">
         <v>0.9</v>
       </c>
       <c r="L6" s="57">
-        <v>32.799999999999997</v>
+        <v>33.5</v>
       </c>
       <c r="M6" s="57">
-        <v>72.2</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -4822,37 +4923,37 @@
         <v>1</v>
       </c>
       <c r="C7" s="30">
-        <v>2155612</v>
+        <v>2172807</v>
       </c>
       <c r="D7" s="30">
-        <v>1335151</v>
+        <v>1338333</v>
       </c>
       <c r="E7" s="30">
-        <v>885762</v>
+        <v>900273</v>
       </c>
       <c r="F7" s="32">
-        <v>52.9</v>
+        <v>53.1</v>
       </c>
       <c r="G7" s="32">
         <v>2.9</v>
       </c>
       <c r="H7" s="32">
-        <v>48.5</v>
+        <v>48.6</v>
       </c>
       <c r="I7" s="32">
-        <v>76.099999999999994</v>
+        <v>76.2</v>
       </c>
       <c r="J7" s="32">
-        <v>35.1</v>
+        <v>35.700000000000003</v>
       </c>
       <c r="K7" s="32">
-        <v>0.8</v>
+        <v>0.9</v>
       </c>
       <c r="L7" s="34">
-        <v>29.6</v>
+        <v>30.3</v>
       </c>
       <c r="M7" s="32">
-        <v>60</v>
+        <v>60.7</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -4863,37 +4964,37 @@
         <v>45</v>
       </c>
       <c r="C8" s="31">
-        <v>686909</v>
+        <v>697251</v>
       </c>
       <c r="D8" s="31">
-        <v>441123</v>
+        <v>445869</v>
       </c>
       <c r="E8" s="31">
-        <v>266846</v>
+        <v>272860</v>
       </c>
       <c r="F8" s="33">
-        <v>64.8</v>
+        <v>65.5</v>
       </c>
       <c r="G8" s="33">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="H8" s="33">
-        <v>66.900000000000006</v>
+        <v>67.900000000000006</v>
       </c>
       <c r="I8" s="33">
-        <v>90.3</v>
+        <v>90.8</v>
       </c>
       <c r="J8" s="33">
-        <v>39.200000000000003</v>
+        <v>40.1</v>
       </c>
       <c r="K8" s="33">
         <v>0.8</v>
       </c>
       <c r="L8" s="33">
-        <v>36.799999999999997</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="M8" s="33">
-        <v>66.900000000000006</v>
+        <v>68.099999999999994</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -4904,37 +5005,37 @@
         <v>3</v>
       </c>
       <c r="C9" s="30">
-        <v>1668655</v>
+        <v>1679146</v>
       </c>
       <c r="D9" s="30">
-        <v>1031002</v>
+        <v>1037941</v>
       </c>
       <c r="E9" s="30">
-        <v>684316</v>
+        <v>688298</v>
       </c>
       <c r="F9" s="32">
-        <v>55.8</v>
+        <v>56.2</v>
       </c>
       <c r="G9" s="32">
         <v>2.6</v>
       </c>
       <c r="H9" s="32">
-        <v>56.5</v>
+        <v>57</v>
       </c>
       <c r="I9" s="32">
-        <v>82.6</v>
+        <v>82.7</v>
       </c>
       <c r="J9" s="32">
-        <v>37</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K9" s="32">
         <v>1.4</v>
       </c>
       <c r="L9" s="32">
-        <v>38</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="M9" s="32">
-        <v>60.1</v>
+        <v>60.3</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="16.5" customHeight="1">
@@ -4945,37 +5046,37 @@
         <v>11</v>
       </c>
       <c r="C10" s="31">
-        <v>5718251</v>
+        <v>5763763</v>
       </c>
       <c r="D10" s="31">
-        <v>3491289</v>
+        <v>3509649</v>
       </c>
       <c r="E10" s="31">
-        <v>2358810</v>
+        <v>2388081</v>
       </c>
       <c r="F10" s="33">
-        <v>55.5</v>
+        <v>55.8</v>
       </c>
       <c r="G10" s="33">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="H10" s="33">
-        <v>54.6</v>
+        <v>55.1</v>
       </c>
       <c r="I10" s="33">
-        <v>83.2</v>
+        <v>83.3</v>
       </c>
       <c r="J10" s="33">
-        <v>37.5</v>
+        <v>38</v>
       </c>
       <c r="K10" s="33">
         <v>1.2</v>
       </c>
       <c r="L10" s="33">
-        <v>37</v>
+        <v>37.5</v>
       </c>
       <c r="M10" s="33">
-        <v>60.9</v>
+        <v>61.6</v>
       </c>
     </row>
     <row r="11" spans="1:13">
@@ -4986,37 +5087,37 @@
         <v>4</v>
       </c>
       <c r="C11" s="30">
-        <v>1520349</v>
+        <v>1530454</v>
       </c>
       <c r="D11" s="30">
-        <v>902668</v>
+        <v>906795</v>
       </c>
       <c r="E11" s="30">
-        <v>652539</v>
+        <v>658749</v>
       </c>
       <c r="F11" s="32">
-        <v>56.1</v>
+        <v>56.4</v>
       </c>
       <c r="G11" s="32">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H11" s="32">
-        <v>51.9</v>
+        <v>52.3</v>
       </c>
       <c r="I11" s="32">
-        <v>82</v>
+        <v>82.1</v>
       </c>
       <c r="J11" s="32">
-        <v>40.6</v>
+        <v>41</v>
       </c>
       <c r="K11" s="32">
         <v>0.9</v>
       </c>
       <c r="L11" s="32">
-        <v>35.5</v>
+        <v>35.9</v>
       </c>
       <c r="M11" s="32">
-        <v>66.2</v>
+        <v>66.8</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -5027,37 +5128,37 @@
         <v>5</v>
       </c>
       <c r="C12" s="31">
-        <v>7359486</v>
+        <v>7419765</v>
       </c>
       <c r="D12" s="31">
-        <v>4655442</v>
+        <v>4684560</v>
       </c>
       <c r="E12" s="31">
-        <v>2961816</v>
+        <v>2993913</v>
       </c>
       <c r="F12" s="33">
-        <v>58.2</v>
+        <v>58.6</v>
       </c>
       <c r="G12" s="33">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H12" s="33">
-        <v>54.7</v>
+        <v>55.2</v>
       </c>
       <c r="I12" s="33">
-        <v>86.9</v>
+        <v>87</v>
       </c>
       <c r="J12" s="33">
-        <v>37.1</v>
+        <v>37.5</v>
       </c>
       <c r="K12" s="33">
         <v>1.1000000000000001</v>
       </c>
       <c r="L12" s="33">
-        <v>36.299999999999997</v>
+        <v>36.6</v>
       </c>
       <c r="M12" s="33">
-        <v>59.2</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:13">
@@ -5068,37 +5169,37 @@
         <v>44</v>
       </c>
       <c r="C13" s="30">
-        <v>17681676</v>
+        <v>17804664</v>
       </c>
       <c r="D13" s="30">
-        <v>10615558</v>
+        <v>10669748</v>
       </c>
       <c r="E13" s="30">
-        <v>7580938</v>
+        <v>7652421</v>
       </c>
       <c r="F13" s="32">
-        <v>59.1</v>
+        <v>59.5</v>
       </c>
       <c r="G13" s="32">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="H13" s="32">
-        <v>57.7</v>
+        <v>58.2</v>
       </c>
       <c r="I13" s="32">
-        <v>86.4</v>
+        <v>86.5</v>
       </c>
       <c r="J13" s="32">
-        <v>42.2</v>
+        <v>42.6</v>
       </c>
       <c r="K13" s="32">
         <v>1.3</v>
       </c>
       <c r="L13" s="32">
-        <v>40.299999999999997</v>
+        <v>40.700000000000003</v>
       </c>
       <c r="M13" s="32">
-        <v>70.599999999999994</v>
+        <v>71.2</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -5109,37 +5210,37 @@
         <v>9</v>
       </c>
       <c r="C14" s="31">
-        <v>3784135</v>
+        <v>3813352</v>
       </c>
       <c r="D14" s="31">
-        <v>2354104</v>
+        <v>2364327</v>
       </c>
       <c r="E14" s="31">
-        <v>1527688</v>
+        <v>1547930</v>
       </c>
       <c r="F14" s="33">
-        <v>57.5</v>
+        <v>57.8</v>
       </c>
       <c r="G14" s="33">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H14" s="33">
-        <v>54.7</v>
+        <v>55</v>
       </c>
       <c r="I14" s="33">
-        <v>85.7</v>
+        <v>85.9</v>
       </c>
       <c r="J14" s="33">
-        <v>37.299999999999997</v>
+        <v>37.799999999999997</v>
       </c>
       <c r="K14" s="33">
-        <v>1</v>
+        <v>1.1000000000000001</v>
       </c>
       <c r="L14" s="33">
-        <v>33.799999999999997</v>
+        <v>34.200000000000003</v>
       </c>
       <c r="M14" s="33">
-        <v>64.099999999999994</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:13">
@@ -5150,37 +5251,37 @@
         <v>10</v>
       </c>
       <c r="C15" s="30">
-        <v>1005553</v>
+        <v>1008012</v>
       </c>
       <c r="D15" s="30">
-        <v>593768</v>
+        <v>595124</v>
       </c>
       <c r="E15" s="30">
-        <v>436059</v>
+        <v>437339</v>
       </c>
       <c r="F15" s="32">
-        <v>60.2</v>
+        <v>60.3</v>
       </c>
       <c r="G15" s="32">
         <v>2.8</v>
       </c>
       <c r="H15" s="32">
-        <v>55.7</v>
+        <v>55.9</v>
       </c>
       <c r="I15" s="32">
         <v>86.7</v>
       </c>
       <c r="J15" s="32">
-        <v>44.2</v>
+        <v>44.3</v>
       </c>
       <c r="K15" s="32">
         <v>1</v>
       </c>
       <c r="L15" s="32">
-        <v>39.1</v>
+        <v>39.200000000000003</v>
       </c>
       <c r="M15" s="32">
-        <v>72.599999999999994</v>
+        <v>72.7</v>
       </c>
     </row>
     <row r="16" spans="1:13">
@@ -5191,37 +5292,37 @@
         <v>6</v>
       </c>
       <c r="C16" s="31">
-        <v>3422979</v>
+        <v>3439522</v>
       </c>
       <c r="D16" s="31">
-        <v>1968888</v>
+        <v>1975970</v>
       </c>
       <c r="E16" s="31">
-        <v>1517686</v>
+        <v>1527527</v>
       </c>
       <c r="F16" s="33">
-        <v>48.4</v>
+        <v>48.5</v>
       </c>
       <c r="G16" s="57">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H16" s="57">
-        <v>44.4</v>
+        <v>44.7</v>
       </c>
       <c r="I16" s="57">
-        <v>72.099999999999994</v>
+        <v>72.2</v>
       </c>
       <c r="J16" s="33">
-        <v>37.299999999999997</v>
+        <v>37.5</v>
       </c>
       <c r="K16" s="57">
         <v>1.1000000000000001</v>
       </c>
       <c r="L16" s="57">
-        <v>33.1</v>
+        <v>33.4</v>
       </c>
       <c r="M16" s="57">
-        <v>60.5</v>
+        <v>60.8</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -5232,37 +5333,37 @@
         <v>7</v>
       </c>
       <c r="C17" s="30">
-        <v>1923087</v>
+        <v>1938421</v>
       </c>
       <c r="D17" s="30">
-        <v>1164068</v>
+        <v>1169770</v>
       </c>
       <c r="E17" s="30">
-        <v>817746</v>
+        <v>828152</v>
       </c>
       <c r="F17" s="32">
-        <v>53</v>
+        <v>53.3</v>
       </c>
       <c r="G17" s="34">
-        <v>2.2000000000000002</v>
+        <v>2.2999999999999998</v>
       </c>
       <c r="H17" s="34">
-        <v>46.4</v>
+        <v>46.8</v>
       </c>
       <c r="I17" s="34">
-        <v>77.599999999999994</v>
+        <v>77.8</v>
       </c>
       <c r="J17" s="32">
-        <v>37.299999999999997</v>
+        <v>37.700000000000003</v>
       </c>
       <c r="K17" s="34">
         <v>0.8</v>
       </c>
       <c r="L17" s="34">
-        <v>30.1</v>
+        <v>30.5</v>
       </c>
       <c r="M17" s="34">
-        <v>62.9</v>
+        <v>63.6</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -5273,37 +5374,37 @@
         <v>8</v>
       </c>
       <c r="C18" s="31">
-        <v>2827977</v>
+        <v>2839463</v>
       </c>
       <c r="D18" s="31">
-        <v>1742924</v>
+        <v>1749095</v>
       </c>
       <c r="E18" s="31">
-        <v>1158189</v>
+        <v>1164268</v>
       </c>
       <c r="F18" s="33">
-        <v>60</v>
+        <v>60.2</v>
       </c>
       <c r="G18" s="33">
         <v>4.3</v>
       </c>
       <c r="H18" s="33">
-        <v>59.2</v>
+        <v>59.5</v>
       </c>
       <c r="I18" s="33">
         <v>86.5</v>
       </c>
       <c r="J18" s="33">
-        <v>39.9</v>
+        <v>40.1</v>
       </c>
       <c r="K18" s="33">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
       <c r="L18" s="33">
-        <v>35.9</v>
+        <v>36.200000000000003</v>
       </c>
       <c r="M18" s="33">
-        <v>68.400000000000006</v>
+        <v>68.599999999999994</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -5314,37 +5415,37 @@
         <v>47</v>
       </c>
       <c r="C19" s="30">
-        <v>1871395</v>
+        <v>1882808</v>
       </c>
       <c r="D19" s="30">
-        <v>1123506</v>
+        <v>1125661</v>
       </c>
       <c r="E19" s="30">
-        <v>784920</v>
+        <v>794758</v>
       </c>
       <c r="F19" s="32">
-        <v>52.7</v>
+        <v>52.8</v>
       </c>
       <c r="G19" s="32">
         <v>3.9</v>
       </c>
       <c r="H19" s="32">
-        <v>48.2</v>
+        <v>48.3</v>
       </c>
       <c r="I19" s="32">
-        <v>76.8</v>
+        <v>76.900000000000006</v>
       </c>
       <c r="J19" s="32">
-        <v>36.799999999999997</v>
+        <v>37.299999999999997</v>
       </c>
       <c r="K19" s="32">
         <v>0.8</v>
       </c>
       <c r="L19" s="32">
-        <v>31.4</v>
+        <v>32</v>
       </c>
       <c r="M19" s="32">
-        <v>60.8</v>
+        <v>61.3</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -5353,79 +5454,79 @@
         <v>51</v>
       </c>
       <c r="C20" s="31">
-        <v>264682</v>
+        <v>266264</v>
       </c>
       <c r="D20" s="31">
-        <v>166468</v>
+        <v>166955</v>
       </c>
       <c r="E20" s="31">
-        <v>102275</v>
+        <v>103370</v>
       </c>
       <c r="F20" s="57" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>68</v>
+      </c>
+      <c r="H20" s="57" t="s">
         <v>69</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="I20" s="57" t="s">
         <v>70</v>
       </c>
-      <c r="H20" s="57" t="s">
+      <c r="J20" s="57" t="s">
         <v>71</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="K20" s="57" t="s">
         <v>72</v>
       </c>
-      <c r="J20" s="57" t="s">
+      <c r="L20" s="57" t="s">
         <v>73</v>
       </c>
-      <c r="K20" s="57" t="s">
+      <c r="M20" s="57" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="57" t="s">
-        <v>75</v>
-      </c>
-      <c r="M20" s="57" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" ht="15" thickBot="1">
+    </row>
+    <row r="21" spans="1:17" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="12">
-        <v>77332207</v>
+        <v>77892414</v>
       </c>
       <c r="D21" s="12">
-        <v>46970794</v>
+        <v>47213139</v>
       </c>
       <c r="E21" s="12">
-        <v>32361386</v>
+        <v>32696003</v>
       </c>
       <c r="F21" s="56">
-        <v>56.5</v>
+        <v>56.8</v>
       </c>
       <c r="G21" s="56">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H21" s="56">
-        <v>55</v>
+        <v>55.4</v>
       </c>
       <c r="I21" s="56">
-        <v>82.9</v>
+        <v>83.1</v>
       </c>
       <c r="J21" s="56">
-        <v>38.9</v>
+        <v>39.299999999999997</v>
       </c>
       <c r="K21" s="56">
         <v>1.2</v>
       </c>
       <c r="L21" s="56">
-        <v>36.6</v>
+        <v>37</v>
       </c>
       <c r="M21" s="56">
-        <v>65.099999999999994</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" ht="15" thickTop="1"/>
+        <v>65.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" ht="15.75" thickTop="1"/>
     <row r="23" spans="1:17" s="59" customFormat="1">
       <c r="C23" s="60"/>
     </row>
@@ -5435,98 +5536,98 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="195"/>
     </row>
     <row r="26" spans="1:17">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
     </row>
     <row r="27" spans="1:17">
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
     </row>
     <row r="28" spans="1:17">
-      <c r="B28" s="179" t="s">
+      <c r="B28" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="C28" s="179"/>
-      <c r="D28" s="179"/>
-      <c r="E28" s="179"/>
-      <c r="F28" s="179"/>
-      <c r="G28" s="179"/>
-      <c r="H28" s="179"/>
-      <c r="I28" s="179"/>
-      <c r="J28" s="179"/>
-      <c r="K28" s="179"/>
-      <c r="L28" s="179"/>
-      <c r="M28" s="179"/>
-      <c r="N28" s="179"/>
-      <c r="O28" s="179"/>
-      <c r="P28" s="179"/>
-      <c r="Q28" s="179"/>
+      <c r="C28" s="183"/>
+      <c r="D28" s="183"/>
+      <c r="E28" s="183"/>
+      <c r="F28" s="183"/>
+      <c r="G28" s="183"/>
+      <c r="H28" s="183"/>
+      <c r="I28" s="183"/>
+      <c r="J28" s="183"/>
+      <c r="K28" s="183"/>
+      <c r="L28" s="183"/>
+      <c r="M28" s="183"/>
+      <c r="N28" s="183"/>
+      <c r="O28" s="183"/>
+      <c r="P28" s="183"/>
+      <c r="Q28" s="183"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="B29" s="179"/>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
+      <c r="B29" s="183"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
     </row>
     <row r="30" spans="1:17">
       <c r="B30" s="68"/>
@@ -5547,7 +5648,9 @@
       <c r="Q30" s="65"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="B31" s="69"/>
+      <c r="B31" s="182" t="s">
+        <v>276</v>
+      </c>
       <c r="C31" s="69"/>
       <c r="D31" s="69"/>
       <c r="E31" s="69"/>
@@ -5575,69 +5678,69 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36246FF8-D917-43A6-8C76-62F6D1CA6D2E}">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T32"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:A3"/>
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="4.54296875" customWidth="1"/>
+    <col min="1" max="1" width="4.5703125" customWidth="1"/>
     <col min="2" max="2" width="25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
-      <c r="A1" s="191" t="s">
+      <c r="A1" s="200" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="191" t="s">
+      <c r="B1" s="200" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="194" t="s">
+      <c r="C1" s="203" t="s">
         <v>52</v>
       </c>
-      <c r="D1" s="195"/>
-      <c r="E1" s="195"/>
-      <c r="F1" s="195"/>
-      <c r="G1" s="195"/>
-      <c r="H1" s="196"/>
-      <c r="I1" s="197" t="s">
+      <c r="D1" s="204"/>
+      <c r="E1" s="204"/>
+      <c r="F1" s="204"/>
+      <c r="G1" s="204"/>
+      <c r="H1" s="205"/>
+      <c r="I1" s="206" t="s">
         <v>57</v>
       </c>
-      <c r="J1" s="197"/>
-      <c r="K1" s="197"/>
-      <c r="L1" s="197"/>
-      <c r="M1" s="198"/>
-      <c r="N1" s="199"/>
+      <c r="J1" s="206"/>
+      <c r="K1" s="206"/>
+      <c r="L1" s="206"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="208"/>
     </row>
     <row r="2" spans="1:14">
-      <c r="A2" s="192"/>
-      <c r="B2" s="192"/>
-      <c r="C2" s="201" t="s">
+      <c r="A2" s="201"/>
+      <c r="B2" s="201"/>
+      <c r="C2" s="196" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="202"/>
-      <c r="E2" s="202"/>
-      <c r="F2" s="202"/>
-      <c r="G2" s="202"/>
-      <c r="H2" s="197" t="s">
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="206" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="200" t="s">
+      <c r="I2" s="209" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="200"/>
-      <c r="K2" s="200"/>
-      <c r="L2" s="200"/>
-      <c r="M2" s="196"/>
-      <c r="N2" s="203" t="s">
+      <c r="J2" s="209"/>
+      <c r="K2" s="209"/>
+      <c r="L2" s="209"/>
+      <c r="M2" s="205"/>
+      <c r="N2" s="198" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="16.5" customHeight="1">
-      <c r="A3" s="193"/>
-      <c r="B3" s="193"/>
+      <c r="A3" s="202"/>
+      <c r="B3" s="202"/>
       <c r="C3" s="21" t="s">
         <v>15</v>
       </c>
@@ -5653,7 +5756,7 @@
       <c r="G3" s="21" t="s">
         <v>53</v>
       </c>
-      <c r="H3" s="197"/>
+      <c r="H3" s="206"/>
       <c r="I3" s="35" t="s">
         <v>15</v>
       </c>
@@ -5669,7 +5772,7 @@
       <c r="M3" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="204"/>
+      <c r="N3" s="199"/>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="25" t="s">
@@ -5679,40 +5782,40 @@
         <v>46</v>
       </c>
       <c r="C4" s="40">
-        <v>6189059</v>
+        <v>6216722</v>
       </c>
       <c r="D4" s="40">
-        <v>4270595</v>
+        <v>4293980</v>
       </c>
       <c r="E4" s="40">
-        <v>516001</v>
+        <v>517346</v>
       </c>
       <c r="F4" s="40">
-        <v>1163757</v>
+        <v>1164508</v>
       </c>
       <c r="G4" s="40">
-        <v>238706</v>
+        <v>240888</v>
       </c>
       <c r="H4" s="40">
-        <v>8582</v>
+        <v>17227</v>
       </c>
       <c r="I4" s="40">
-        <v>4248927</v>
+        <v>4305883</v>
       </c>
       <c r="J4" s="47">
-        <v>3274430</v>
+        <v>3316471</v>
       </c>
       <c r="K4" s="40">
-        <v>399294</v>
+        <v>408456</v>
       </c>
       <c r="L4" s="40">
-        <v>336497</v>
+        <v>340068</v>
       </c>
       <c r="M4" s="40">
-        <v>238706</v>
+        <v>240888</v>
       </c>
       <c r="N4" s="47">
-        <v>27359</v>
+        <v>45825</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5723,40 +5826,40 @@
         <v>0</v>
       </c>
       <c r="C5" s="48">
-        <v>7143757</v>
+        <v>7195065</v>
       </c>
       <c r="D5" s="48">
-        <v>4990120</v>
+        <v>5029532</v>
       </c>
       <c r="E5" s="48">
-        <v>583686</v>
+        <v>591572</v>
       </c>
       <c r="F5" s="48">
-        <v>1312768</v>
+        <v>1314574</v>
       </c>
       <c r="G5" s="48">
-        <v>257183</v>
+        <v>259387</v>
       </c>
       <c r="H5" s="48">
-        <v>20102</v>
+        <v>41957</v>
       </c>
       <c r="I5" s="48">
-        <v>5008201</v>
+        <v>5042845</v>
       </c>
       <c r="J5" s="49">
-        <v>3845978</v>
+        <v>3867214</v>
       </c>
       <c r="K5" s="48">
-        <v>456801</v>
+        <v>463844</v>
       </c>
       <c r="L5" s="48">
-        <v>448239</v>
+        <v>452400</v>
       </c>
       <c r="M5" s="48">
-        <v>257183</v>
+        <v>259387</v>
       </c>
       <c r="N5" s="49">
-        <v>15546</v>
+        <v>33383</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5767,40 +5870,40 @@
         <v>2</v>
       </c>
       <c r="C6" s="40">
-        <v>2052019</v>
+        <v>2061555</v>
       </c>
       <c r="D6" s="40">
-        <v>1410659</v>
+        <v>1417904</v>
       </c>
       <c r="E6" s="40">
-        <v>228133</v>
+        <v>229179</v>
       </c>
       <c r="F6" s="40">
-        <v>339946</v>
+        <v>340063</v>
       </c>
       <c r="G6" s="40">
-        <v>73281</v>
+        <v>74409</v>
       </c>
       <c r="H6" s="40">
-        <v>4680</v>
+        <v>8224</v>
       </c>
       <c r="I6" s="40">
-        <v>1368668</v>
+        <v>1389336</v>
       </c>
       <c r="J6" s="47">
-        <v>1033537</v>
+        <v>1045943</v>
       </c>
       <c r="K6" s="40">
-        <v>156992</v>
+        <v>163334</v>
       </c>
       <c r="L6" s="40">
-        <v>104858</v>
+        <v>105650</v>
       </c>
       <c r="M6" s="40">
-        <v>73281</v>
+        <v>74409</v>
       </c>
       <c r="N6" s="47">
-        <v>12811</v>
+        <v>19581</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5811,40 +5914,40 @@
         <v>1</v>
       </c>
       <c r="C7" s="48">
-        <v>1335151</v>
+        <v>1338333</v>
       </c>
       <c r="D7" s="48">
-        <v>904133</v>
+        <v>906558</v>
       </c>
       <c r="E7" s="48">
-        <v>118217</v>
+        <v>118365</v>
       </c>
       <c r="F7" s="48">
-        <v>247500</v>
+        <v>247611</v>
       </c>
       <c r="G7" s="48">
-        <v>65301</v>
+        <v>65799</v>
       </c>
       <c r="H7" s="48">
-        <v>26</v>
+        <v>2907</v>
       </c>
       <c r="I7" s="48">
-        <v>885762</v>
+        <v>900273</v>
       </c>
       <c r="J7" s="49">
-        <v>660030</v>
+        <v>671348</v>
       </c>
       <c r="K7" s="48">
-        <v>73577</v>
+        <v>75270</v>
       </c>
       <c r="L7" s="48">
-        <v>86854</v>
+        <v>87856</v>
       </c>
       <c r="M7" s="48">
-        <v>65301</v>
+        <v>65799</v>
       </c>
       <c r="N7" s="49">
-        <v>242</v>
+        <v>14268</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5855,40 +5958,40 @@
         <v>45</v>
       </c>
       <c r="C8" s="40">
-        <v>441123</v>
+        <v>445869</v>
       </c>
       <c r="D8" s="40">
-        <v>300946</v>
+        <v>303498</v>
       </c>
       <c r="E8" s="40">
-        <v>23632</v>
+        <v>24152</v>
       </c>
       <c r="F8" s="40">
-        <v>95485</v>
+        <v>96741</v>
       </c>
       <c r="G8" s="40">
-        <v>21060</v>
+        <v>21478</v>
       </c>
       <c r="H8" s="40">
-        <v>991</v>
+        <v>2143</v>
       </c>
       <c r="I8" s="40">
-        <v>266846</v>
+        <v>272860</v>
       </c>
       <c r="J8" s="47">
-        <v>206780</v>
+        <v>211558</v>
       </c>
       <c r="K8" s="40">
-        <v>20336</v>
+        <v>20982</v>
       </c>
       <c r="L8" s="40">
-        <v>18670</v>
+        <v>18842</v>
       </c>
       <c r="M8" s="40">
-        <v>21060</v>
+        <v>21478</v>
       </c>
       <c r="N8" s="47">
-        <v>2098</v>
+        <v>4697</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="16.5" customHeight="1">
@@ -5899,40 +6002,40 @@
         <v>3</v>
       </c>
       <c r="C9" s="48">
-        <v>1031002</v>
+        <v>1037941</v>
       </c>
       <c r="D9" s="48">
-        <v>702990</v>
+        <v>709207</v>
       </c>
       <c r="E9" s="48">
-        <v>95688</v>
+        <v>95833</v>
       </c>
       <c r="F9" s="48">
-        <v>185661</v>
+        <v>185808</v>
       </c>
       <c r="G9" s="48">
-        <v>46663</v>
+        <v>47093</v>
       </c>
       <c r="H9" s="48">
-        <v>4043</v>
+        <v>3276</v>
       </c>
       <c r="I9" s="48">
-        <v>684316</v>
+        <v>688298</v>
       </c>
       <c r="J9" s="49">
-        <v>519400</v>
+        <v>521974</v>
       </c>
       <c r="K9" s="48">
-        <v>84435</v>
+        <v>84944</v>
       </c>
       <c r="L9" s="48">
-        <v>33818</v>
+        <v>34287</v>
       </c>
       <c r="M9" s="48">
-        <v>46663</v>
+        <v>47093</v>
       </c>
       <c r="N9" s="49">
-        <v>3885</v>
+        <v>3442</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5943,40 +6046,40 @@
         <v>11</v>
       </c>
       <c r="C10" s="40">
-        <v>3491289</v>
+        <v>3509649</v>
       </c>
       <c r="D10" s="40">
-        <v>2380194</v>
+        <v>2393137</v>
       </c>
       <c r="E10" s="40">
-        <v>266724</v>
+        <v>269682</v>
       </c>
       <c r="F10" s="40">
-        <v>712523</v>
+        <v>712863</v>
       </c>
       <c r="G10" s="40">
-        <v>131848</v>
+        <v>133967</v>
       </c>
       <c r="H10" s="40">
-        <v>6764</v>
+        <v>12838</v>
       </c>
       <c r="I10" s="40">
-        <v>2358810</v>
+        <v>2388081</v>
       </c>
       <c r="J10" s="47">
-        <v>1800001</v>
+        <v>1818601</v>
       </c>
       <c r="K10" s="40">
-        <v>216825</v>
+        <v>222760</v>
       </c>
       <c r="L10" s="40">
-        <v>210136</v>
+        <v>212753</v>
       </c>
       <c r="M10" s="40">
-        <v>131848</v>
+        <v>133967</v>
       </c>
       <c r="N10" s="47">
-        <v>19590</v>
+        <v>25500</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5987,40 +6090,40 @@
         <v>4</v>
       </c>
       <c r="C11" s="48">
-        <v>902668</v>
+        <v>906795</v>
       </c>
       <c r="D11" s="48">
-        <v>651240</v>
+        <v>654845</v>
       </c>
       <c r="E11" s="48">
-        <v>72118</v>
+        <v>72368</v>
       </c>
       <c r="F11" s="48">
-        <v>144452</v>
+        <v>144492</v>
       </c>
       <c r="G11" s="48">
-        <v>34858</v>
+        <v>35090</v>
       </c>
       <c r="H11" s="48">
-        <v>423</v>
+        <v>3956</v>
       </c>
       <c r="I11" s="48">
-        <v>652539</v>
+        <v>658749</v>
       </c>
       <c r="J11" s="49">
-        <v>519571</v>
+        <v>523577</v>
       </c>
       <c r="K11" s="48">
-        <v>52148</v>
+        <v>52830</v>
       </c>
       <c r="L11" s="48">
-        <v>45962</v>
+        <v>47252</v>
       </c>
       <c r="M11" s="48">
-        <v>34858</v>
+        <v>35090</v>
       </c>
       <c r="N11" s="49">
-        <v>261</v>
+        <v>6046</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -6031,40 +6134,40 @@
         <v>5</v>
       </c>
       <c r="C12" s="40">
-        <v>4655442</v>
+        <v>4684560</v>
       </c>
       <c r="D12" s="40">
-        <v>2902880</v>
+        <v>2923117</v>
       </c>
       <c r="E12" s="40">
-        <v>379875</v>
+        <v>386275</v>
       </c>
       <c r="F12" s="40">
-        <v>1114915</v>
+        <v>1116460</v>
       </c>
       <c r="G12" s="40">
-        <v>257772</v>
+        <v>258708</v>
       </c>
       <c r="H12" s="40">
-        <v>7984</v>
+        <v>26348</v>
       </c>
       <c r="I12" s="40">
-        <v>2961816</v>
+        <v>2993913</v>
       </c>
       <c r="J12" s="47">
-        <v>2275736</v>
+        <v>2292448</v>
       </c>
       <c r="K12" s="40">
-        <v>227551</v>
+        <v>233317</v>
       </c>
       <c r="L12" s="40">
-        <v>200757</v>
+        <v>209440</v>
       </c>
       <c r="M12" s="40">
-        <v>257772</v>
+        <v>258708</v>
       </c>
       <c r="N12" s="47">
-        <v>3437</v>
+        <v>29553</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -6075,40 +6178,40 @@
         <v>44</v>
       </c>
       <c r="C13" s="48">
-        <v>10615558</v>
+        <v>10669748</v>
       </c>
       <c r="D13" s="48">
-        <v>7174532</v>
+        <v>7222307</v>
       </c>
       <c r="E13" s="48">
-        <v>682183</v>
+        <v>684752</v>
       </c>
       <c r="F13" s="48">
-        <v>2244023</v>
+        <v>2245184</v>
       </c>
       <c r="G13" s="48">
-        <v>514820</v>
+        <v>517505</v>
       </c>
       <c r="H13" s="48">
-        <v>26690</v>
+        <v>46534</v>
       </c>
       <c r="I13" s="48">
-        <v>7580938</v>
+        <v>7652421</v>
       </c>
       <c r="J13" s="49">
-        <v>5760259</v>
+        <v>5808505</v>
       </c>
       <c r="K13" s="48">
-        <v>665269</v>
+        <v>678639</v>
       </c>
       <c r="L13" s="48">
-        <v>640590</v>
+        <v>647772</v>
       </c>
       <c r="M13" s="48">
-        <v>514820</v>
+        <v>517505</v>
       </c>
       <c r="N13" s="49">
-        <v>54080</v>
+        <v>68987</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -6119,40 +6222,40 @@
         <v>9</v>
       </c>
       <c r="C14" s="40">
-        <v>2354104</v>
+        <v>2364327</v>
       </c>
       <c r="D14" s="40">
-        <v>1644491</v>
+        <v>1652006</v>
       </c>
       <c r="E14" s="40">
-        <v>183036</v>
+        <v>183389</v>
       </c>
       <c r="F14" s="40">
-        <v>428920</v>
+        <v>430027</v>
       </c>
       <c r="G14" s="40">
-        <v>97657</v>
+        <v>98905</v>
       </c>
       <c r="H14" s="40">
-        <v>2944</v>
+        <v>8526</v>
       </c>
       <c r="I14" s="40">
-        <v>1527688</v>
+        <v>1547930</v>
       </c>
       <c r="J14" s="47">
-        <v>1159943</v>
+        <v>1171147</v>
       </c>
       <c r="K14" s="40">
-        <v>123697</v>
+        <v>128250</v>
       </c>
       <c r="L14" s="40">
-        <v>146391</v>
+        <v>149628</v>
       </c>
       <c r="M14" s="40">
-        <v>97657</v>
+        <v>98905</v>
       </c>
       <c r="N14" s="47">
-        <v>4300</v>
+        <v>17992</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -6163,40 +6266,40 @@
         <v>10</v>
       </c>
       <c r="C15" s="48">
-        <v>593768</v>
+        <v>595124</v>
       </c>
       <c r="D15" s="48">
-        <v>443825</v>
+        <v>444945</v>
       </c>
       <c r="E15" s="48">
-        <v>43273</v>
+        <v>43314</v>
       </c>
       <c r="F15" s="48">
-        <v>82396</v>
+        <v>82414</v>
       </c>
       <c r="G15" s="48">
-        <v>24274</v>
+        <v>24451</v>
       </c>
       <c r="H15" s="48">
-        <v>967</v>
+        <v>1066</v>
       </c>
       <c r="I15" s="48">
-        <v>436059</v>
+        <v>437339</v>
       </c>
       <c r="J15" s="49">
-        <v>358517</v>
+        <v>359364</v>
       </c>
       <c r="K15" s="48">
-        <v>31235</v>
+        <v>31255</v>
       </c>
       <c r="L15" s="48">
-        <v>22033</v>
+        <v>22269</v>
       </c>
       <c r="M15" s="48">
-        <v>24274</v>
+        <v>24451</v>
       </c>
       <c r="N15" s="49">
-        <v>368</v>
+        <v>1244</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -6207,40 +6310,40 @@
         <v>6</v>
       </c>
       <c r="C16" s="40">
-        <v>1968888</v>
+        <v>1975970</v>
       </c>
       <c r="D16" s="40">
-        <v>1425479</v>
+        <v>1431038</v>
       </c>
       <c r="E16" s="40">
-        <v>175856</v>
+        <v>176894</v>
       </c>
       <c r="F16" s="40">
-        <v>303958</v>
+        <v>304063</v>
       </c>
       <c r="G16" s="40">
-        <v>63595</v>
+        <v>63975</v>
       </c>
       <c r="H16" s="40">
-        <v>6210</v>
+        <v>6864</v>
       </c>
       <c r="I16" s="40">
-        <v>1517686</v>
+        <v>1527527</v>
       </c>
       <c r="J16" s="47">
-        <v>1168010</v>
+        <v>1175083</v>
       </c>
       <c r="K16" s="40">
-        <v>153500</v>
+        <v>154314</v>
       </c>
       <c r="L16" s="40">
-        <v>132581</v>
+        <v>134155</v>
       </c>
       <c r="M16" s="40">
-        <v>63595</v>
+        <v>63975</v>
       </c>
       <c r="N16" s="47">
-        <v>5567</v>
+        <v>9432</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -6251,40 +6354,40 @@
         <v>7</v>
       </c>
       <c r="C17" s="50">
-        <v>1164068</v>
+        <v>1169770</v>
       </c>
       <c r="D17" s="50">
-        <v>810898</v>
+        <v>814642</v>
       </c>
       <c r="E17" s="50">
-        <v>104954</v>
+        <v>106046</v>
       </c>
       <c r="F17" s="48">
-        <v>189489</v>
+        <v>189581</v>
       </c>
       <c r="G17" s="48">
-        <v>58727</v>
+        <v>59501</v>
       </c>
       <c r="H17" s="48">
-        <v>756</v>
+        <v>3985</v>
       </c>
       <c r="I17" s="50">
-        <v>817746</v>
+        <v>828152</v>
       </c>
       <c r="J17" s="51">
-        <v>614903</v>
+        <v>619661</v>
       </c>
       <c r="K17" s="50">
-        <v>73598</v>
+        <v>77259</v>
       </c>
       <c r="L17" s="50">
-        <v>70518</v>
+        <v>71731</v>
       </c>
       <c r="M17" s="50">
-        <v>58727</v>
+        <v>59501</v>
       </c>
       <c r="N17" s="51">
-        <v>316</v>
+        <v>8044</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -6295,40 +6398,40 @@
         <v>8</v>
       </c>
       <c r="C18" s="40">
-        <v>1742924</v>
+        <v>1749095</v>
       </c>
       <c r="D18" s="40">
-        <v>1181988</v>
+        <v>1186535</v>
       </c>
       <c r="E18" s="40">
-        <v>134336</v>
+        <v>134901</v>
       </c>
       <c r="F18" s="40">
-        <v>353464</v>
+        <v>353759</v>
       </c>
       <c r="G18" s="40">
-        <v>73136</v>
+        <v>73900</v>
       </c>
       <c r="H18" s="40">
-        <v>4203</v>
+        <v>2383</v>
       </c>
       <c r="I18" s="40">
-        <v>1158189</v>
+        <v>1164268</v>
       </c>
       <c r="J18" s="47">
-        <v>883909</v>
+        <v>888249</v>
       </c>
       <c r="K18" s="40">
-        <v>95509</v>
+        <v>95650</v>
       </c>
       <c r="L18" s="40">
-        <v>105635</v>
+        <v>106469</v>
       </c>
       <c r="M18" s="40">
-        <v>73136</v>
+        <v>73900</v>
       </c>
       <c r="N18" s="47">
-        <v>11102</v>
+        <v>3417</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -6339,40 +6442,40 @@
         <v>47</v>
       </c>
       <c r="C19" s="50">
-        <v>1123506</v>
+        <v>1125661</v>
       </c>
       <c r="D19" s="50">
-        <v>796109</v>
+        <v>797615</v>
       </c>
       <c r="E19" s="50">
-        <v>122553</v>
+        <v>122599</v>
       </c>
       <c r="F19" s="48">
-        <v>167813</v>
+        <v>167836</v>
       </c>
       <c r="G19" s="48">
-        <v>37031</v>
+        <v>37611</v>
       </c>
       <c r="H19" s="48">
-        <v>452</v>
+        <v>1886</v>
       </c>
       <c r="I19" s="50">
-        <v>784920</v>
+        <v>794758</v>
       </c>
       <c r="J19" s="51">
-        <v>609174</v>
+        <v>615829</v>
       </c>
       <c r="K19" s="50">
-        <v>81047</v>
+        <v>83335</v>
       </c>
       <c r="L19" s="50">
-        <v>57668</v>
+        <v>57983</v>
       </c>
       <c r="M19" s="50">
-        <v>37031</v>
+        <v>37611</v>
       </c>
       <c r="N19" s="51">
-        <v>3521</v>
+        <v>9318</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -6381,13 +6484,13 @@
         <v>54</v>
       </c>
       <c r="C20" s="40">
-        <v>166468</v>
+        <v>166955</v>
       </c>
       <c r="D20" s="40">
-        <v>66806</v>
+        <v>67280</v>
       </c>
       <c r="E20" s="40">
-        <v>77305</v>
+        <v>77318</v>
       </c>
       <c r="F20" s="52">
         <v>18296</v>
@@ -6396,130 +6499,130 @@
         <v>4061</v>
       </c>
       <c r="H20" s="52">
-        <v>0</v>
+        <v>345</v>
       </c>
       <c r="I20" s="40">
-        <v>102275</v>
+        <v>103370</v>
       </c>
       <c r="J20" s="47">
-        <v>19594</v>
+        <v>20477</v>
       </c>
       <c r="K20" s="40">
-        <v>70304</v>
+        <v>70515</v>
       </c>
       <c r="L20" s="40">
-        <v>8316</v>
+        <v>8317</v>
       </c>
       <c r="M20" s="40">
         <v>4061</v>
       </c>
       <c r="N20" s="47">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" ht="15" thickBot="1">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" ht="15.75" thickBot="1">
       <c r="A21" s="10"/>
       <c r="B21" s="41" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="42">
-        <v>46970794</v>
+        <v>47213139</v>
       </c>
       <c r="D21" s="42">
-        <v>32057885</v>
+        <v>32248146</v>
       </c>
       <c r="E21" s="42">
-        <v>3807570</v>
+        <v>3833985</v>
       </c>
       <c r="F21" s="10">
-        <v>9105366</v>
+        <v>9114280</v>
       </c>
       <c r="G21" s="42">
-        <v>1999973</v>
+        <v>2016728</v>
       </c>
       <c r="H21" s="42">
-        <v>95817</v>
+        <v>190465</v>
       </c>
       <c r="I21" s="42">
-        <v>32361386</v>
+        <v>32696003</v>
       </c>
       <c r="J21" s="10">
-        <v>24709772</v>
+        <v>24927449</v>
       </c>
       <c r="K21" s="10">
-        <v>2982118</v>
+        <v>3044954</v>
       </c>
       <c r="L21" s="10">
-        <v>2669523</v>
+        <v>2706872</v>
       </c>
       <c r="M21" s="10">
-        <v>1999973</v>
+        <v>2016728</v>
       </c>
       <c r="N21" s="10">
-        <v>164483</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" ht="15" thickTop="1"/>
+        <v>301498</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" ht="15.75" thickTop="1"/>
     <row r="24" spans="1:20" s="4" customFormat="1">
       <c r="B24" s="4" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:20">
-      <c r="B25" s="178" t="s">
+      <c r="B25" s="195" t="s">
         <v>61</v>
       </c>
-      <c r="C25" s="178"/>
-      <c r="D25" s="178"/>
-      <c r="E25" s="178"/>
-      <c r="F25" s="178"/>
-      <c r="G25" s="178"/>
-      <c r="H25" s="178"/>
-      <c r="I25" s="178"/>
-      <c r="J25" s="178"/>
-      <c r="K25" s="178"/>
-      <c r="L25" s="178"/>
-      <c r="M25" s="178"/>
-      <c r="N25" s="178"/>
-      <c r="O25" s="178"/>
-      <c r="P25" s="178"/>
-      <c r="Q25" s="178"/>
+      <c r="C25" s="195"/>
+      <c r="D25" s="195"/>
+      <c r="E25" s="195"/>
+      <c r="F25" s="195"/>
+      <c r="G25" s="195"/>
+      <c r="H25" s="195"/>
+      <c r="I25" s="195"/>
+      <c r="J25" s="195"/>
+      <c r="K25" s="195"/>
+      <c r="L25" s="195"/>
+      <c r="M25" s="195"/>
+      <c r="N25" s="195"/>
+      <c r="O25" s="195"/>
+      <c r="P25" s="195"/>
+      <c r="Q25" s="195"/>
     </row>
     <row r="26" spans="1:20">
-      <c r="B26" s="178"/>
-      <c r="C26" s="178"/>
-      <c r="D26" s="178"/>
-      <c r="E26" s="178"/>
-      <c r="F26" s="178"/>
-      <c r="G26" s="178"/>
-      <c r="H26" s="178"/>
-      <c r="I26" s="178"/>
-      <c r="J26" s="178"/>
-      <c r="K26" s="178"/>
-      <c r="L26" s="178"/>
-      <c r="M26" s="178"/>
-      <c r="N26" s="178"/>
-      <c r="O26" s="178"/>
-      <c r="P26" s="178"/>
-      <c r="Q26" s="178"/>
+      <c r="B26" s="195"/>
+      <c r="C26" s="195"/>
+      <c r="D26" s="195"/>
+      <c r="E26" s="195"/>
+      <c r="F26" s="195"/>
+      <c r="G26" s="195"/>
+      <c r="H26" s="195"/>
+      <c r="I26" s="195"/>
+      <c r="J26" s="195"/>
+      <c r="K26" s="195"/>
+      <c r="L26" s="195"/>
+      <c r="M26" s="195"/>
+      <c r="N26" s="195"/>
+      <c r="O26" s="195"/>
+      <c r="P26" s="195"/>
+      <c r="Q26" s="195"/>
     </row>
     <row r="27" spans="1:20">
-      <c r="B27" s="178"/>
-      <c r="C27" s="178"/>
-      <c r="D27" s="178"/>
-      <c r="E27" s="178"/>
-      <c r="F27" s="178"/>
-      <c r="G27" s="178"/>
-      <c r="H27" s="178"/>
-      <c r="I27" s="178"/>
-      <c r="J27" s="178"/>
-      <c r="K27" s="178"/>
-      <c r="L27" s="178"/>
-      <c r="M27" s="178"/>
-      <c r="N27" s="178"/>
-      <c r="O27" s="178"/>
-      <c r="P27" s="178"/>
-      <c r="Q27" s="178"/>
+      <c r="B27" s="195"/>
+      <c r="C27" s="195"/>
+      <c r="D27" s="195"/>
+      <c r="E27" s="195"/>
+      <c r="F27" s="195"/>
+      <c r="G27" s="195"/>
+      <c r="H27" s="195"/>
+      <c r="I27" s="195"/>
+      <c r="J27" s="195"/>
+      <c r="K27" s="195"/>
+      <c r="L27" s="195"/>
+      <c r="M27" s="195"/>
+      <c r="N27" s="195"/>
+      <c r="O27" s="195"/>
+      <c r="P27" s="195"/>
+      <c r="Q27" s="195"/>
     </row>
     <row r="28" spans="1:20">
       <c r="B28" t="s">
@@ -6527,45 +6630,45 @@
       </c>
     </row>
     <row r="29" spans="1:20">
-      <c r="B29" s="179" t="s">
+      <c r="B29" s="183" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="179"/>
-      <c r="D29" s="179"/>
-      <c r="E29" s="179"/>
-      <c r="F29" s="179"/>
-      <c r="G29" s="179"/>
-      <c r="H29" s="179"/>
-      <c r="I29" s="179"/>
-      <c r="J29" s="179"/>
-      <c r="K29" s="179"/>
-      <c r="L29" s="179"/>
-      <c r="M29" s="179"/>
-      <c r="N29" s="179"/>
-      <c r="O29" s="179"/>
-      <c r="P29" s="179"/>
-      <c r="Q29" s="179"/>
+      <c r="C29" s="183"/>
+      <c r="D29" s="183"/>
+      <c r="E29" s="183"/>
+      <c r="F29" s="183"/>
+      <c r="G29" s="183"/>
+      <c r="H29" s="183"/>
+      <c r="I29" s="183"/>
+      <c r="J29" s="183"/>
+      <c r="K29" s="183"/>
+      <c r="L29" s="183"/>
+      <c r="M29" s="183"/>
+      <c r="N29" s="183"/>
+      <c r="O29" s="183"/>
+      <c r="P29" s="183"/>
+      <c r="Q29" s="183"/>
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
     </row>
     <row r="30" spans="1:20">
-      <c r="B30" s="179"/>
-      <c r="C30" s="179"/>
-      <c r="D30" s="179"/>
-      <c r="E30" s="179"/>
-      <c r="F30" s="179"/>
-      <c r="G30" s="179"/>
-      <c r="H30" s="179"/>
-      <c r="I30" s="179"/>
-      <c r="J30" s="179"/>
-      <c r="K30" s="179"/>
-      <c r="L30" s="179"/>
-      <c r="M30" s="179"/>
-      <c r="N30" s="179"/>
-      <c r="O30" s="179"/>
-      <c r="P30" s="179"/>
-      <c r="Q30" s="179"/>
+      <c r="B30" s="183"/>
+      <c r="C30" s="183"/>
+      <c r="D30" s="183"/>
+      <c r="E30" s="183"/>
+      <c r="F30" s="183"/>
+      <c r="G30" s="183"/>
+      <c r="H30" s="183"/>
+      <c r="I30" s="183"/>
+      <c r="J30" s="183"/>
+      <c r="K30" s="183"/>
+      <c r="L30" s="183"/>
+      <c r="M30" s="183"/>
+      <c r="N30" s="183"/>
+      <c r="O30" s="183"/>
+      <c r="P30" s="183"/>
+      <c r="Q30" s="183"/>
     </row>
     <row r="31" spans="1:20">
       <c r="B31" s="68"/>
@@ -6584,6 +6687,11 @@
       <c r="O31" s="65"/>
       <c r="P31" s="65"/>
       <c r="Q31" s="65"/>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="B32" s="182" t="s">
+        <v>276</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -6605,37 +6713,37 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FD2E263-4F37-4CCD-9472-109108C9F925}">
-  <dimension ref="A1:F195"/>
+  <dimension ref="A1:F198"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A170" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A200" sqref="A200"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="14" customWidth="1"/>
-    <col min="3" max="3" width="16.453125" customWidth="1"/>
-    <col min="4" max="4" width="15.81640625" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
+    <col min="4" max="4" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.5">
+    <row r="1" spans="1:6" ht="45">
       <c r="A1" s="43" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B1" s="43" t="s">
+        <v>271</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>272</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="D1" s="22" t="s">
         <v>273</v>
-      </c>
-      <c r="D1" s="22" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="44" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B2" s="15">
         <v>23437</v>
@@ -6649,7 +6757,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="45" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B3" s="16">
         <v>17665</v>
@@ -6663,7 +6771,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="44" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B4" s="15">
         <v>48611</v>
@@ -6678,21 +6786,21 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="45" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B5" s="16">
-        <v>62578</v>
+        <v>62579</v>
       </c>
       <c r="C5" s="64">
         <v>0</v>
       </c>
       <c r="D5" s="16">
-        <v>62578</v>
+        <v>62579</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B6" s="15">
         <v>49044</v>
@@ -6707,21 +6815,21 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B7" s="16">
-        <v>25196</v>
+        <v>25195</v>
       </c>
       <c r="C7" s="64">
         <v>0</v>
       </c>
       <c r="D7" s="16">
-        <v>25196</v>
+        <v>25195</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B8" s="15">
         <v>47364</v>
@@ -6735,7 +6843,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B9" s="16">
         <v>22132</v>
@@ -6749,7 +6857,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B10" s="15">
         <v>45438</v>
@@ -6763,49 +6871,49 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B11" s="16">
-        <v>51355</v>
+        <v>51354</v>
       </c>
       <c r="C11" s="64">
         <v>0</v>
       </c>
       <c r="D11" s="16">
-        <v>51355</v>
+        <v>51354</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="44" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B12" s="15">
-        <v>62227</v>
+        <v>62226</v>
       </c>
       <c r="C12" s="66">
         <v>0</v>
       </c>
       <c r="D12" s="15">
-        <v>62227</v>
+        <v>62226</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B13" s="16">
-        <v>53705</v>
+        <v>53706</v>
       </c>
       <c r="C13" s="64">
         <v>0</v>
       </c>
       <c r="D13" s="16">
-        <v>53705</v>
+        <v>53706</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="44" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B14" s="15">
         <v>61347</v>
@@ -6819,7 +6927,7 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="46" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B15" s="17">
         <v>59547</v>
@@ -6833,35 +6941,35 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="44" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B16" s="15">
-        <v>34956</v>
+        <v>34957</v>
       </c>
       <c r="C16" s="66">
         <v>0</v>
       </c>
       <c r="D16" s="15">
-        <v>34956</v>
+        <v>34957</v>
       </c>
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B17" s="17">
-        <v>67100</v>
+        <v>67218</v>
       </c>
       <c r="C17" s="67">
         <v>0</v>
       </c>
       <c r="D17" s="17">
-        <v>67100</v>
+        <v>67218</v>
       </c>
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B18" s="15">
         <v>77974</v>
@@ -6875,49 +6983,49 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="45" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B19" s="16">
-        <v>110212</v>
+        <v>110094</v>
       </c>
       <c r="C19" s="64">
         <v>0</v>
       </c>
       <c r="D19" s="16">
-        <v>110212</v>
+        <v>110094</v>
       </c>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="44" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B20" s="15">
-        <v>82569</v>
+        <v>82568</v>
       </c>
       <c r="C20" s="66">
         <v>0</v>
       </c>
       <c r="D20" s="15">
-        <v>82569</v>
+        <v>82568</v>
       </c>
     </row>
     <row r="21" spans="1:4">
       <c r="A21" s="45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B21" s="16">
-        <v>89299</v>
+        <v>89298</v>
       </c>
       <c r="C21" s="64">
         <v>850</v>
       </c>
       <c r="D21" s="16">
-        <v>90149</v>
+        <v>90148</v>
       </c>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="44" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B22" s="15">
         <v>56118</v>
@@ -6931,7 +7039,7 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" s="45" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B23" s="16">
         <v>30285</v>
@@ -6945,27 +7053,27 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="44" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B24" s="15">
-        <v>66023</v>
+        <v>66036</v>
       </c>
       <c r="C24" s="15">
         <v>15780</v>
       </c>
       <c r="D24" s="15">
-        <v>81803</v>
+        <v>81816</v>
       </c>
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="45" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B25" s="16">
-        <v>82529</v>
+        <v>82530</v>
       </c>
       <c r="C25" s="16">
-        <v>36424</v>
+        <v>36423</v>
       </c>
       <c r="D25" s="16">
         <v>118953</v>
@@ -6973,7 +7081,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="44" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B26" s="15">
         <v>77962</v>
@@ -6987,27 +7095,27 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" s="45" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B27" s="16">
-        <v>64030</v>
+        <v>64031</v>
       </c>
       <c r="C27" s="16">
         <v>41275</v>
       </c>
       <c r="D27" s="16">
-        <v>105305</v>
+        <v>105306</v>
       </c>
     </row>
     <row r="28" spans="1:4">
       <c r="A28" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B28" s="15">
-        <v>68241</v>
+        <v>68242</v>
       </c>
       <c r="C28" s="15">
-        <v>33440</v>
+        <v>33439</v>
       </c>
       <c r="D28" s="15">
         <v>101681</v>
@@ -7015,13 +7123,13 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" s="45" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B29" s="16">
-        <v>40703</v>
+        <v>40704</v>
       </c>
       <c r="C29" s="16">
-        <v>46007</v>
+        <v>46006</v>
       </c>
       <c r="D29" s="16">
         <v>86710</v>
@@ -7029,7 +7137,7 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" s="44" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B30" s="15">
         <v>25654</v>
@@ -7043,35 +7151,35 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" s="46" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B31" s="17">
         <v>52284</v>
       </c>
       <c r="C31" s="17">
-        <v>38671</v>
+        <v>38670</v>
       </c>
       <c r="D31" s="17">
-        <v>90955</v>
+        <v>90954</v>
       </c>
     </row>
     <row r="32" spans="1:4">
       <c r="A32" s="44" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B32" s="15">
-        <v>50599</v>
+        <v>50597</v>
       </c>
       <c r="C32" s="15">
-        <v>46760</v>
+        <v>46761</v>
       </c>
       <c r="D32" s="15">
-        <v>97359</v>
+        <v>97358</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" s="46" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B33" s="17">
         <v>50676</v>
@@ -7085,13 +7193,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" s="44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B34" s="15">
-        <v>46290</v>
+        <v>46291</v>
       </c>
       <c r="C34" s="15">
-        <v>45880</v>
+        <v>45879</v>
       </c>
       <c r="D34" s="15">
         <v>92170</v>
@@ -7099,7 +7207,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="45" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B35" s="16">
         <v>49925</v>
@@ -7113,7 +7221,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="44" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B36" s="15">
         <v>34440</v>
@@ -7127,119 +7235,119 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="45" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B37" s="16">
         <v>25853</v>
       </c>
       <c r="C37" s="16">
-        <v>31120</v>
+        <v>31121</v>
       </c>
       <c r="D37" s="16">
-        <v>56973</v>
+        <v>56974</v>
       </c>
     </row>
     <row r="38" spans="1:4">
       <c r="A38" s="44" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B38" s="15">
-        <v>57949</v>
+        <v>57955</v>
       </c>
       <c r="C38" s="15">
-        <v>61695</v>
+        <v>61694</v>
       </c>
       <c r="D38" s="15">
-        <v>119644</v>
+        <v>119649</v>
       </c>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="45" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B39" s="16">
-        <v>64758</v>
+        <v>64756</v>
       </c>
       <c r="C39" s="16">
         <v>67243</v>
       </c>
       <c r="D39" s="16">
-        <v>132001</v>
+        <v>131999</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="44" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B40" s="15">
-        <v>63610</v>
+        <v>63611</v>
       </c>
       <c r="C40" s="15">
-        <v>97558</v>
+        <v>97559</v>
       </c>
       <c r="D40" s="15">
-        <v>161168</v>
+        <v>161170</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="45" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B41" s="16">
         <v>61293</v>
       </c>
       <c r="C41" s="16">
-        <v>71837</v>
+        <v>71839</v>
       </c>
       <c r="D41" s="16">
-        <v>133130</v>
+        <v>133132</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="44" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B42" s="15">
-        <v>69004</v>
+        <v>69009</v>
       </c>
       <c r="C42" s="15">
-        <v>77381</v>
+        <v>77391</v>
       </c>
       <c r="D42" s="15">
-        <v>146385</v>
+        <v>146400</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="45" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B43" s="16">
-        <v>45321</v>
+        <v>45325</v>
       </c>
       <c r="C43" s="16">
-        <v>48243</v>
+        <v>48242</v>
       </c>
       <c r="D43" s="16">
-        <v>93564</v>
+        <v>93567</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="44" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B44" s="15">
         <v>28222</v>
       </c>
       <c r="C44" s="15">
-        <v>25049</v>
+        <v>25048</v>
       </c>
       <c r="D44" s="15">
-        <v>53271</v>
+        <v>53270</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="45" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B45" s="16">
         <v>52980</v>
@@ -7253,27 +7361,27 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="44" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B46" s="15">
         <v>60221</v>
       </c>
       <c r="C46" s="15">
-        <v>73823</v>
+        <v>73822</v>
       </c>
       <c r="D46" s="15">
-        <v>134044</v>
+        <v>134043</v>
       </c>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="46" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B47" s="17">
-        <v>77381</v>
+        <v>77382</v>
       </c>
       <c r="C47" s="17">
-        <v>76816</v>
+        <v>76815</v>
       </c>
       <c r="D47" s="17">
         <v>154197</v>
@@ -7281,49 +7389,49 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="44" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B48" s="15">
         <v>75127</v>
       </c>
       <c r="C48" s="15">
-        <v>68317</v>
+        <v>68316</v>
       </c>
       <c r="D48" s="15">
-        <v>143444</v>
+        <v>143443</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="46" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B49" s="17">
-        <v>79467</v>
+        <v>79465</v>
       </c>
       <c r="C49" s="17">
         <v>75525</v>
       </c>
       <c r="D49" s="17">
-        <v>154992</v>
+        <v>154990</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="44" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B50" s="15">
-        <v>61767</v>
+        <v>61765</v>
       </c>
       <c r="C50" s="15">
-        <v>45446</v>
+        <v>45444</v>
       </c>
       <c r="D50" s="15">
-        <v>107213</v>
+        <v>107209</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="45" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51" s="16">
         <v>39518</v>
@@ -7337,7 +7445,7 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="44" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="15">
         <v>69519</v>
@@ -7351,77 +7459,77 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="45" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B53" s="16">
-        <v>77674</v>
+        <v>77671</v>
       </c>
       <c r="C53" s="16">
-        <v>56276</v>
+        <v>56275</v>
       </c>
       <c r="D53" s="16">
-        <v>133950</v>
+        <v>133946</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B54" s="15">
-        <v>94300</v>
+        <v>94303</v>
       </c>
       <c r="C54" s="15">
-        <v>56278</v>
+        <v>56277</v>
       </c>
       <c r="D54" s="15">
-        <v>150578</v>
+        <v>150580</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B55" s="16">
-        <v>91145</v>
+        <v>91146</v>
       </c>
       <c r="C55" s="16">
         <v>52975</v>
       </c>
       <c r="D55" s="16">
-        <v>144120</v>
+        <v>144121</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="44" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B56" s="15">
-        <v>102643</v>
+        <v>102640</v>
       </c>
       <c r="C56" s="15">
         <v>55407</v>
       </c>
       <c r="D56" s="15">
-        <v>158050</v>
+        <v>158047</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="45" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B57" s="16">
         <v>75688</v>
       </c>
       <c r="C57" s="16">
-        <v>36247</v>
+        <v>36246</v>
       </c>
       <c r="D57" s="16">
-        <v>111935</v>
+        <v>111934</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="44" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B58" s="15">
         <v>57353</v>
@@ -7435,97 +7543,97 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B59" s="16">
-        <v>97594</v>
+        <v>97593</v>
       </c>
       <c r="C59" s="16">
         <v>57437</v>
       </c>
       <c r="D59" s="16">
-        <v>155031</v>
+        <v>155030</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="44" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B60" s="15">
         <v>108966</v>
       </c>
       <c r="C60" s="15">
-        <v>60393</v>
+        <v>60392</v>
       </c>
       <c r="D60" s="15">
-        <v>169359</v>
+        <v>169358</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="45" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B61" s="16">
         <v>116301</v>
       </c>
       <c r="C61" s="16">
-        <v>59119</v>
+        <v>59115</v>
       </c>
       <c r="D61" s="16">
-        <v>175420</v>
+        <v>175416</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="44" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B62" s="15">
         <v>129526</v>
       </c>
       <c r="C62" s="15">
-        <v>59142</v>
+        <v>59141</v>
       </c>
       <c r="D62" s="15">
-        <v>188668</v>
+        <v>188667</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="46" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B63" s="17">
         <v>145196</v>
       </c>
       <c r="C63" s="17">
-        <v>66841</v>
+        <v>66840</v>
       </c>
       <c r="D63" s="17">
-        <v>212037</v>
+        <v>212036</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B64" s="15">
-        <v>107733</v>
+        <v>107732</v>
       </c>
       <c r="C64" s="15">
         <v>39893</v>
       </c>
       <c r="D64" s="15">
-        <v>147626</v>
+        <v>147625</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="46" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B65" s="17">
-        <v>78669</v>
+        <v>78670</v>
       </c>
       <c r="C65" s="17">
-        <v>24069</v>
+        <v>24068</v>
       </c>
       <c r="D65" s="17">
         <v>102738</v>
@@ -7533,91 +7641,91 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="44" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B66" s="15">
-        <v>148134</v>
+        <v>148136</v>
       </c>
       <c r="C66" s="15">
-        <v>49777</v>
+        <v>49774</v>
       </c>
       <c r="D66" s="15">
-        <v>197911</v>
+        <v>197910</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="45" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B67" s="16">
         <v>166441</v>
       </c>
       <c r="C67" s="16">
-        <v>52093</v>
+        <v>52092</v>
       </c>
       <c r="D67" s="16">
-        <v>218534</v>
+        <v>218533</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="44" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B68" s="15">
-        <v>175749</v>
+        <v>175755</v>
       </c>
       <c r="C68" s="15">
-        <v>70217</v>
+        <v>70218</v>
       </c>
       <c r="D68" s="15">
-        <v>245966</v>
+        <v>245973</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="45" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B69" s="16">
-        <v>181383</v>
+        <v>181389</v>
       </c>
       <c r="C69" s="16">
-        <v>62807</v>
+        <v>62808</v>
       </c>
       <c r="D69" s="16">
-        <v>244190</v>
+        <v>244197</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="44" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B70" s="15">
-        <v>206894</v>
+        <v>206942</v>
       </c>
       <c r="C70" s="15">
-        <v>68401</v>
+        <v>68400</v>
       </c>
       <c r="D70" s="15">
-        <v>275295</v>
+        <v>275342</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="45" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71" s="16">
-        <v>152934</v>
+        <v>152939</v>
       </c>
       <c r="C71" s="16">
-        <v>48649</v>
+        <v>48648</v>
       </c>
       <c r="D71" s="16">
-        <v>201583</v>
+        <v>201587</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="44" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B72" s="15">
         <v>114003</v>
@@ -7631,41 +7739,41 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="45" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="16">
-        <v>185754</v>
+        <v>185752</v>
       </c>
       <c r="C73" s="16">
-        <v>51594</v>
+        <v>51592</v>
       </c>
       <c r="D73" s="16">
-        <v>237348</v>
+        <v>237344</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="44" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B74" s="15">
-        <v>197190</v>
+        <v>197191</v>
       </c>
       <c r="C74" s="15">
-        <v>54844</v>
+        <v>54846</v>
       </c>
       <c r="D74" s="15">
-        <v>252034</v>
+        <v>252037</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="45" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B75" s="16">
-        <v>220841</v>
+        <v>220840</v>
       </c>
       <c r="C75" s="16">
-        <v>67035</v>
+        <v>67036</v>
       </c>
       <c r="D75" s="16">
         <v>287876</v>
@@ -7673,139 +7781,139 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="44" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B76" s="15">
-        <v>223136</v>
+        <v>223137</v>
       </c>
       <c r="C76" s="15">
         <v>60879</v>
       </c>
       <c r="D76" s="15">
-        <v>284015</v>
+        <v>284016</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="45" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B77" s="16">
-        <v>255376</v>
+        <v>255377</v>
       </c>
       <c r="C77" s="16">
-        <v>70834</v>
+        <v>70835</v>
       </c>
       <c r="D77" s="16">
-        <v>326210</v>
+        <v>326212</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="44" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B78" s="15">
-        <v>190219</v>
+        <v>190217</v>
       </c>
       <c r="C78" s="15">
         <v>50276</v>
       </c>
       <c r="D78" s="15">
-        <v>240495</v>
+        <v>240493</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="46" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B79" s="17">
         <v>134254</v>
       </c>
       <c r="C79" s="17">
-        <v>35647</v>
+        <v>35646</v>
       </c>
       <c r="D79" s="17">
-        <v>169901</v>
+        <v>169900</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="44" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B80" s="15">
-        <v>188357</v>
+        <v>188356</v>
       </c>
       <c r="C80" s="15">
         <v>59232</v>
       </c>
       <c r="D80" s="15">
-        <v>247589</v>
+        <v>247588</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="46" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B81" s="17">
-        <v>110734</v>
+        <v>110732</v>
       </c>
       <c r="C81" s="17">
-        <v>68063</v>
+        <v>68133</v>
       </c>
       <c r="D81" s="17">
-        <v>178797</v>
+        <v>178865</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="44" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B82" s="15">
-        <v>124070</v>
+        <v>124069</v>
       </c>
       <c r="C82" s="15">
-        <v>80864</v>
+        <v>80866</v>
       </c>
       <c r="D82" s="15">
-        <v>204934</v>
+        <v>204935</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="45" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B83" s="16">
-        <v>117925</v>
+        <v>117923</v>
       </c>
       <c r="C83" s="16">
-        <v>75402</v>
+        <v>75403</v>
       </c>
       <c r="D83" s="16">
-        <v>193327</v>
+        <v>193326</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="44" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B84" s="15">
-        <v>160667</v>
+        <v>160665</v>
       </c>
       <c r="C84" s="15">
-        <v>84083</v>
+        <v>84114</v>
       </c>
       <c r="D84" s="15">
-        <v>244750</v>
+        <v>244779</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="45" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="16">
-        <v>166971</v>
+        <v>166973</v>
       </c>
       <c r="C85" s="16">
-        <v>53258</v>
+        <v>53256</v>
       </c>
       <c r="D85" s="16">
         <v>220229</v>
@@ -7813,7 +7921,7 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="44" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B86" s="15">
         <v>126343</v>
@@ -7827,469 +7935,469 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="45" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B87" s="16">
-        <v>192784</v>
+        <v>192785</v>
       </c>
       <c r="C87" s="16">
-        <v>76325</v>
+        <v>76383</v>
       </c>
       <c r="D87" s="16">
-        <v>269109</v>
+        <v>269168</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="44" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B88" s="15">
-        <v>216763</v>
+        <v>216776</v>
       </c>
       <c r="C88" s="15">
-        <v>83739</v>
+        <v>83743</v>
       </c>
       <c r="D88" s="15">
-        <v>300502</v>
+        <v>300519</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="45" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B89" s="16">
-        <v>249202</v>
+        <v>249213</v>
       </c>
       <c r="C89" s="16">
         <v>89596</v>
       </c>
       <c r="D89" s="16">
-        <v>338798</v>
+        <v>338809</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="44" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B90" s="15">
-        <v>251330</v>
+        <v>251333</v>
       </c>
       <c r="C90" s="15">
         <v>81141</v>
       </c>
       <c r="D90" s="15">
-        <v>332471</v>
+        <v>332474</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="45" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B91" s="16">
-        <v>285031</v>
+        <v>285043</v>
       </c>
       <c r="C91" s="16">
-        <v>88375</v>
+        <v>88373</v>
       </c>
       <c r="D91" s="16">
-        <v>373406</v>
+        <v>373416</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="44" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B92" s="15">
-        <v>218782</v>
+        <v>218779</v>
       </c>
       <c r="C92" s="15">
         <v>62323</v>
       </c>
       <c r="D92" s="15">
-        <v>281105</v>
+        <v>281102</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="45" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B93" s="16">
-        <v>143061</v>
+        <v>143060</v>
       </c>
       <c r="C93" s="16">
         <v>53247</v>
       </c>
       <c r="D93" s="16">
-        <v>196308</v>
+        <v>196307</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="44" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B94" s="15">
-        <v>216666</v>
+        <v>216796</v>
       </c>
       <c r="C94" s="15">
-        <v>88557</v>
+        <v>88556</v>
       </c>
       <c r="D94" s="15">
-        <v>305223</v>
+        <v>305352</v>
       </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="46" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B95" s="17">
-        <v>236189</v>
+        <v>236334</v>
       </c>
       <c r="C95" s="17">
-        <v>92526</v>
+        <v>92527</v>
       </c>
       <c r="D95" s="17">
-        <v>328715</v>
+        <v>328861</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="44" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B96" s="15">
-        <v>234611</v>
+        <v>234733</v>
       </c>
       <c r="C96" s="15">
-        <v>101482</v>
+        <v>101483</v>
       </c>
       <c r="D96" s="15">
-        <v>336093</v>
+        <v>336216</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="46" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B97" s="17">
-        <v>235705</v>
+        <v>235825</v>
       </c>
       <c r="C97" s="17">
         <v>90499</v>
       </c>
       <c r="D97" s="17">
-        <v>326204</v>
+        <v>326324</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="44" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B98" s="15">
-        <v>157717</v>
+        <v>157715</v>
       </c>
       <c r="C98" s="15">
         <v>67959</v>
       </c>
       <c r="D98" s="15">
-        <v>225676</v>
+        <v>225674</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="45" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B99" s="16">
-        <v>167396</v>
+        <v>167401</v>
       </c>
       <c r="C99" s="16">
         <v>64315</v>
       </c>
       <c r="D99" s="16">
-        <v>231711</v>
+        <v>231716</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="44" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B100" s="15">
-        <v>142619</v>
+        <v>142620</v>
       </c>
       <c r="C100" s="15">
         <v>50365</v>
       </c>
       <c r="D100" s="15">
-        <v>192984</v>
+        <v>192985</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="45" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B101" s="16">
-        <v>177617</v>
+        <v>177620</v>
       </c>
       <c r="C101" s="16">
-        <v>70165</v>
+        <v>70164</v>
       </c>
       <c r="D101" s="16">
-        <v>247782</v>
+        <v>247784</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" s="44" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B102" s="15">
-        <v>278898</v>
+        <v>278973</v>
       </c>
       <c r="C102" s="15">
-        <v>94661</v>
+        <v>94659</v>
       </c>
       <c r="D102" s="15">
-        <v>373559</v>
+        <v>373632</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="45" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="B103" s="16">
-        <v>571300</v>
+        <v>571355</v>
       </c>
       <c r="C103" s="16">
         <v>96284</v>
       </c>
       <c r="D103" s="16">
-        <v>667584</v>
+        <v>667639</v>
       </c>
     </row>
     <row r="104" spans="1:4">
       <c r="A104" s="44" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B104" s="15">
-        <v>610619</v>
+        <v>610670</v>
       </c>
       <c r="C104" s="15">
-        <v>87519</v>
+        <v>87520</v>
       </c>
       <c r="D104" s="15">
-        <v>698138</v>
+        <v>698190</v>
       </c>
     </row>
     <row r="105" spans="1:4">
       <c r="A105" s="45" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B105" s="16">
-        <v>542438</v>
+        <v>542495</v>
       </c>
       <c r="C105" s="16">
         <v>88870</v>
       </c>
       <c r="D105" s="16">
-        <v>631308</v>
+        <v>631365</v>
       </c>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="44" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B106" s="15">
-        <v>307289</v>
+        <v>307311</v>
       </c>
       <c r="C106" s="15">
-        <v>65051</v>
+        <v>65052</v>
       </c>
       <c r="D106" s="15">
-        <v>372340</v>
+        <v>372363</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="45" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B107" s="16">
-        <v>213430</v>
+        <v>213445</v>
       </c>
       <c r="C107" s="16">
-        <v>50302</v>
+        <v>50325</v>
       </c>
       <c r="D107" s="16">
-        <v>263732</v>
+        <v>263770</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="44" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B108" s="15">
-        <v>340543</v>
+        <v>341752</v>
       </c>
       <c r="C108" s="15">
-        <v>76365</v>
+        <v>76361</v>
       </c>
       <c r="D108" s="15">
-        <v>416908</v>
+        <v>418113</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="45" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B109" s="16">
-        <v>500823</v>
+        <v>501592</v>
       </c>
       <c r="C109" s="16">
-        <v>73637</v>
+        <v>73635</v>
       </c>
       <c r="D109" s="16">
-        <v>574460</v>
+        <v>575227</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="44" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B110" s="15">
-        <v>689612</v>
+        <v>689680</v>
       </c>
       <c r="C110" s="15">
-        <v>83165</v>
+        <v>83164</v>
       </c>
       <c r="D110" s="15">
-        <v>772777</v>
+        <v>772844</v>
       </c>
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="46" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B111" s="17">
-        <v>607660</v>
+        <v>607758</v>
       </c>
       <c r="C111" s="17">
-        <v>69964</v>
+        <v>69963</v>
       </c>
       <c r="D111" s="17">
-        <v>677624</v>
+        <v>677721</v>
       </c>
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="44" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B112" s="15">
-        <v>520513</v>
+        <v>520604</v>
       </c>
       <c r="C112" s="15">
-        <v>74024</v>
+        <v>74028</v>
       </c>
       <c r="D112" s="15">
-        <v>594537</v>
+        <v>594632</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="46" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B113" s="17">
-        <v>307484</v>
+        <v>307621</v>
       </c>
       <c r="C113" s="17">
-        <v>56637</v>
+        <v>56636</v>
       </c>
       <c r="D113" s="17">
-        <v>364121</v>
+        <v>364257</v>
       </c>
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="44" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B114" s="15">
-        <v>229122</v>
+        <v>229162</v>
       </c>
       <c r="C114" s="15">
-        <v>39011</v>
+        <v>39010</v>
       </c>
       <c r="D114" s="15">
-        <v>268133</v>
+        <v>268172</v>
       </c>
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B115" s="16">
-        <v>339750</v>
+        <v>340023</v>
       </c>
       <c r="C115" s="16">
-        <v>61218</v>
+        <v>61361</v>
       </c>
       <c r="D115" s="16">
-        <v>400968</v>
+        <v>401384</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="44" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B116" s="15">
-        <v>496526</v>
+        <v>496565</v>
       </c>
       <c r="C116" s="15">
-        <v>62540</v>
+        <v>62653</v>
       </c>
       <c r="D116" s="15">
-        <v>559066</v>
+        <v>559218</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="45" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B117" s="16">
-        <v>646757</v>
+        <v>646777</v>
       </c>
       <c r="C117" s="16">
-        <v>72879</v>
+        <v>73008</v>
       </c>
       <c r="D117" s="16">
-        <v>719636</v>
+        <v>719785</v>
       </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="44" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B118" s="15">
-        <v>570250</v>
+        <v>570273</v>
       </c>
       <c r="C118" s="15">
-        <v>67042</v>
+        <v>67107</v>
       </c>
       <c r="D118" s="15">
-        <v>637292</v>
+        <v>637380</v>
       </c>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="45" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B119" s="16">
-        <v>486312</v>
+        <v>486372</v>
       </c>
       <c r="C119" s="16">
-        <v>68765</v>
+        <v>68796</v>
       </c>
       <c r="D119" s="16">
-        <v>555077</v>
+        <v>555168</v>
       </c>
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="44" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B120" s="15">
         <v>306070</v>
@@ -8303,704 +8411,704 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="45" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B121" s="16">
-        <v>233435</v>
+        <v>233431</v>
       </c>
       <c r="C121" s="16">
-        <v>49082</v>
+        <v>49081</v>
       </c>
       <c r="D121" s="16">
-        <v>282517</v>
+        <v>282512</v>
       </c>
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="44" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B122" s="15">
-        <v>358122</v>
+        <v>358149</v>
       </c>
       <c r="C122" s="15">
-        <v>73876</v>
+        <v>73891</v>
       </c>
       <c r="D122" s="15">
-        <v>431998</v>
+        <v>432040</v>
       </c>
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="45" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B123" s="16">
-        <v>693206</v>
+        <v>693239</v>
       </c>
       <c r="C123" s="16">
-        <v>91309</v>
+        <v>91397</v>
       </c>
       <c r="D123" s="16">
-        <v>784515</v>
+        <v>784636</v>
       </c>
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B124" s="15">
-        <v>996041</v>
+        <v>996070</v>
       </c>
       <c r="C124" s="15">
-        <v>125992</v>
+        <v>126080</v>
       </c>
       <c r="D124" s="15">
-        <v>1122033</v>
+        <v>1122150</v>
       </c>
     </row>
     <row r="125" spans="1:4">
       <c r="A125" s="45" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B125" s="16">
-        <v>812920</v>
+        <v>812966</v>
       </c>
       <c r="C125" s="16">
-        <v>132398</v>
+        <v>132471</v>
       </c>
       <c r="D125" s="16">
-        <v>945318</v>
+        <v>945437</v>
       </c>
     </row>
     <row r="126" spans="1:4">
       <c r="A126" s="44" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B126" s="15">
-        <v>666739</v>
+        <v>666762</v>
       </c>
       <c r="C126" s="15">
-        <v>136123</v>
+        <v>136158</v>
       </c>
       <c r="D126" s="15">
-        <v>802862</v>
+        <v>802920</v>
       </c>
     </row>
     <row r="127" spans="1:4">
       <c r="A127" s="45" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B127" s="16">
-        <v>262256</v>
+        <v>262329</v>
       </c>
       <c r="C127" s="16">
-        <v>73696</v>
+        <v>73695</v>
       </c>
       <c r="D127" s="16">
-        <v>335952</v>
+        <v>336024</v>
       </c>
     </row>
     <row r="128" spans="1:4">
       <c r="A128" s="44" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B128" s="15">
-        <v>199265</v>
+        <v>199288</v>
       </c>
       <c r="C128" s="15">
-        <v>65582</v>
+        <v>65581</v>
       </c>
       <c r="D128" s="15">
-        <v>264847</v>
+        <v>264869</v>
       </c>
     </row>
     <row r="129" spans="1:4">
       <c r="A129" s="45" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B129" s="16">
-        <v>336793</v>
+        <v>336816</v>
       </c>
       <c r="C129" s="16">
-        <v>114716</v>
+        <v>114779</v>
       </c>
       <c r="D129" s="16">
-        <v>451509</v>
+        <v>451595</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" s="44" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B130" s="15">
-        <v>683639</v>
+        <v>683717</v>
       </c>
       <c r="C130" s="15">
-        <v>158700</v>
+        <v>158745</v>
       </c>
       <c r="D130" s="15">
-        <v>842339</v>
+        <v>842462</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" s="45" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B131" s="16">
-        <v>916866</v>
+        <v>918380</v>
       </c>
       <c r="C131" s="16">
-        <v>226564</v>
+        <v>227147</v>
       </c>
       <c r="D131" s="16">
-        <v>1143430</v>
+        <v>1145527</v>
       </c>
     </row>
     <row r="132" spans="1:4">
       <c r="A132" s="44" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B132" s="15">
-        <v>767992</v>
+        <v>770574</v>
       </c>
       <c r="C132" s="15">
-        <v>217165</v>
+        <v>218501</v>
       </c>
       <c r="D132" s="15">
-        <v>985157</v>
+        <v>989075</v>
       </c>
     </row>
     <row r="133" spans="1:4">
       <c r="A133" s="45" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B133" s="16">
-        <v>651984</v>
+        <v>655114</v>
       </c>
       <c r="C133" s="16">
-        <v>232554</v>
+        <v>233775</v>
       </c>
       <c r="D133" s="16">
-        <v>884538</v>
+        <v>888889</v>
       </c>
     </row>
     <row r="134" spans="1:4">
       <c r="A134" s="44" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B134" s="15">
         <v>273582</v>
       </c>
       <c r="C134" s="15">
-        <v>152359</v>
+        <v>152352</v>
       </c>
       <c r="D134" s="15">
-        <v>425941</v>
+        <v>425934</v>
       </c>
     </row>
     <row r="135" spans="1:4">
       <c r="A135" s="45" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B135" s="16">
-        <v>184700</v>
+        <v>184695</v>
       </c>
       <c r="C135" s="16">
-        <v>101453</v>
+        <v>101463</v>
       </c>
       <c r="D135" s="16">
-        <v>286153</v>
+        <v>286158</v>
       </c>
     </row>
     <row r="136" spans="1:4">
       <c r="A136" s="44" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B136" s="15">
-        <v>399001</v>
+        <v>399032</v>
       </c>
       <c r="C136" s="15">
-        <v>189632</v>
+        <v>189660</v>
       </c>
       <c r="D136" s="15">
-        <v>588633</v>
+        <v>588692</v>
       </c>
     </row>
     <row r="137" spans="1:4">
       <c r="A137" s="45" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B137" s="16">
-        <v>800682</v>
+        <v>800730</v>
       </c>
       <c r="C137" s="16">
-        <v>283482</v>
+        <v>283537</v>
       </c>
       <c r="D137" s="16">
-        <v>1084164</v>
+        <v>1084267</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" s="44" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B138" s="15">
-        <v>1053575</v>
+        <v>1053624</v>
       </c>
       <c r="C138" s="15">
-        <v>360113</v>
+        <v>360195</v>
       </c>
       <c r="D138" s="15">
-        <v>1413688</v>
+        <v>1413819</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" s="45" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B139" s="16">
-        <v>271074</v>
+        <v>271082</v>
       </c>
       <c r="C139" s="16">
-        <v>158018</v>
+        <v>158020</v>
       </c>
       <c r="D139" s="16">
-        <v>429092</v>
+        <v>429102</v>
       </c>
     </row>
     <row r="140" spans="1:4">
       <c r="A140" s="44" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B140" s="15">
-        <v>533529</v>
+        <v>533575</v>
       </c>
       <c r="C140" s="15">
-        <v>222506</v>
+        <v>222596</v>
       </c>
       <c r="D140" s="15">
-        <v>756035</v>
+        <v>756171</v>
       </c>
     </row>
     <row r="141" spans="1:4">
       <c r="A141" s="45" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B141" s="16">
-        <v>238781</v>
+        <v>238779</v>
       </c>
       <c r="C141" s="16">
-        <v>161218</v>
+        <v>161215</v>
       </c>
       <c r="D141" s="16">
-        <v>399999</v>
+        <v>399994</v>
       </c>
     </row>
     <row r="142" spans="1:4">
       <c r="A142" s="44" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B142" s="15">
-        <v>165185</v>
+        <v>165198</v>
       </c>
       <c r="C142" s="15">
-        <v>117287</v>
+        <v>117286</v>
       </c>
       <c r="D142" s="15">
-        <v>282472</v>
+        <v>282484</v>
       </c>
     </row>
     <row r="143" spans="1:4">
       <c r="A143" s="45" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B143" s="16">
-        <v>358434</v>
+        <v>358478</v>
       </c>
       <c r="C143" s="16">
-        <v>196148</v>
+        <v>196185</v>
       </c>
       <c r="D143" s="16">
-        <v>554582</v>
+        <v>554663</v>
       </c>
     </row>
     <row r="144" spans="1:4">
       <c r="A144" s="44" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B144" s="15">
-        <v>524146</v>
+        <v>524193</v>
       </c>
       <c r="C144" s="15">
-        <v>346023</v>
+        <v>346115</v>
       </c>
       <c r="D144" s="15">
-        <v>870169</v>
+        <v>870308</v>
       </c>
     </row>
     <row r="145" spans="1:4">
       <c r="A145" s="45" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B145" s="16">
-        <v>574790</v>
+        <v>574847</v>
       </c>
       <c r="C145" s="16">
-        <v>521245</v>
+        <v>521288</v>
       </c>
       <c r="D145" s="16">
-        <v>1096035</v>
+        <v>1096135</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" s="44" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B146" s="15">
-        <v>465207</v>
+        <v>465254</v>
       </c>
       <c r="C146" s="15">
-        <v>479808</v>
+        <v>479848</v>
       </c>
       <c r="D146" s="15">
-        <v>945015</v>
+        <v>945102</v>
       </c>
     </row>
     <row r="147" spans="1:4">
       <c r="A147" s="45" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B147" s="16">
-        <v>416696</v>
+        <v>416804</v>
       </c>
       <c r="C147" s="16">
-        <v>432376</v>
+        <v>432391</v>
       </c>
       <c r="D147" s="16">
-        <v>849072</v>
+        <v>849195</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" s="44" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B148" s="15">
-        <v>229027</v>
+        <v>229030</v>
       </c>
       <c r="C148" s="15">
-        <v>244690</v>
+        <v>244700</v>
       </c>
       <c r="D148" s="15">
-        <v>473717</v>
+        <v>473730</v>
       </c>
     </row>
     <row r="149" spans="1:4">
       <c r="A149" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B149" s="16">
-        <v>133526</v>
+        <v>133533</v>
       </c>
       <c r="C149" s="16">
-        <v>151641</v>
+        <v>151637</v>
       </c>
       <c r="D149" s="16">
-        <v>285167</v>
+        <v>285170</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" s="44" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B150" s="15">
-        <v>148646</v>
+        <v>148944</v>
       </c>
       <c r="C150" s="15">
-        <v>176869</v>
+        <v>176840</v>
       </c>
       <c r="D150" s="15">
-        <v>325515</v>
+        <v>325784</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" s="45" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B151" s="16">
-        <v>295798</v>
+        <v>295893</v>
       </c>
       <c r="C151" s="16">
-        <v>356515</v>
+        <v>356630</v>
       </c>
       <c r="D151" s="16">
-        <v>652313</v>
+        <v>652523</v>
       </c>
     </row>
     <row r="152" spans="1:4">
       <c r="A152" s="44" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B152" s="15">
-        <v>545960</v>
+        <v>546012</v>
       </c>
       <c r="C152" s="15">
-        <v>629514</v>
+        <v>629561</v>
       </c>
       <c r="D152" s="15">
-        <v>1175474</v>
+        <v>1175573</v>
       </c>
     </row>
     <row r="153" spans="1:4">
       <c r="A153" s="45" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B153" s="16">
-        <v>483675</v>
+        <v>483720</v>
       </c>
       <c r="C153" s="16">
-        <v>552425</v>
+        <v>552435</v>
       </c>
       <c r="D153" s="16">
-        <v>1036100</v>
+        <v>1036155</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" s="44" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B154" s="15">
-        <v>438618</v>
+        <v>438665</v>
       </c>
       <c r="C154" s="15">
-        <v>461242</v>
+        <v>461341</v>
       </c>
       <c r="D154" s="15">
-        <v>899860</v>
+        <v>900006</v>
       </c>
     </row>
     <row r="155" spans="1:4">
       <c r="A155" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B155" s="16">
-        <v>178712</v>
+        <v>178729</v>
       </c>
       <c r="C155" s="16">
-        <v>229495</v>
+        <v>229724</v>
       </c>
       <c r="D155" s="16">
-        <v>408207</v>
+        <v>408453</v>
       </c>
     </row>
     <row r="156" spans="1:4">
       <c r="A156" s="44" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B156" s="15">
-        <v>108308</v>
+        <v>108334</v>
       </c>
       <c r="C156" s="15">
-        <v>174734</v>
+        <v>174729</v>
       </c>
       <c r="D156" s="15">
-        <v>283042</v>
+        <v>283063</v>
       </c>
     </row>
     <row r="157" spans="1:4">
       <c r="A157" s="45" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B157" s="16">
-        <v>219834</v>
+        <v>220047</v>
       </c>
       <c r="C157" s="16">
-        <v>325038</v>
+        <v>325056</v>
       </c>
       <c r="D157" s="16">
-        <v>544872</v>
+        <v>545103</v>
       </c>
     </row>
     <row r="158" spans="1:4">
       <c r="A158" s="44" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B158" s="15">
-        <v>483660</v>
+        <v>483712</v>
       </c>
       <c r="C158" s="15">
-        <v>501657</v>
+        <v>501681</v>
       </c>
       <c r="D158" s="15">
-        <v>985317</v>
+        <v>985393</v>
       </c>
     </row>
     <row r="159" spans="1:4">
       <c r="A159" s="45" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B159" s="16">
-        <v>619409</v>
+        <v>619436</v>
       </c>
       <c r="C159" s="16">
-        <v>624371</v>
+        <v>624386</v>
       </c>
       <c r="D159" s="16">
-        <v>1243780</v>
+        <v>1243822</v>
       </c>
     </row>
     <row r="160" spans="1:4">
       <c r="A160" s="44" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B160" s="15">
-        <v>283001</v>
+        <v>283048</v>
       </c>
       <c r="C160" s="15">
-        <v>357992</v>
+        <v>358058</v>
       </c>
       <c r="D160" s="15">
-        <v>640993</v>
+        <v>641106</v>
       </c>
     </row>
     <row r="161" spans="1:6">
       <c r="A161" s="45" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B161" s="16">
-        <v>367152</v>
+        <v>367218</v>
       </c>
       <c r="C161" s="16">
-        <v>440795</v>
+        <v>440868</v>
       </c>
       <c r="D161" s="16">
-        <v>807947</v>
+        <v>808086</v>
       </c>
     </row>
     <row r="162" spans="1:6">
       <c r="A162" s="44" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B162" s="15">
-        <v>126094</v>
+        <v>126102</v>
       </c>
       <c r="C162" s="15">
-        <v>284835</v>
+        <v>284834</v>
       </c>
       <c r="D162" s="15">
-        <v>410929</v>
+        <v>410936</v>
       </c>
       <c r="F162" s="63"/>
     </row>
     <row r="163" spans="1:6">
       <c r="A163" s="45" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B163" s="16">
-        <v>77613</v>
+        <v>77615</v>
       </c>
       <c r="C163" s="16">
-        <v>214619</v>
+        <v>214636</v>
       </c>
       <c r="D163" s="16">
-        <v>292232</v>
+        <v>292251</v>
       </c>
       <c r="F163" s="63"/>
     </row>
     <row r="164" spans="1:6">
       <c r="A164" s="61" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B164" s="62">
-        <v>244997</v>
+        <v>245108</v>
       </c>
       <c r="C164" s="62">
-        <v>365271</v>
+        <v>365337</v>
       </c>
       <c r="D164" s="62">
-        <v>610268</v>
+        <v>610445</v>
       </c>
       <c r="F164" s="63"/>
     </row>
     <row r="165" spans="1:6">
       <c r="A165" s="45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B165" s="16">
-        <v>399281</v>
+        <v>399486</v>
       </c>
       <c r="C165" s="16">
-        <v>642464</v>
+        <v>642491</v>
       </c>
       <c r="D165" s="16">
-        <v>1041745</v>
+        <v>1041977</v>
       </c>
       <c r="F165" s="63"/>
     </row>
     <row r="166" spans="1:6">
       <c r="A166" s="74" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B166" s="75">
-        <v>529758</v>
+        <v>530234</v>
       </c>
       <c r="C166" s="76">
-        <v>876932</v>
+        <v>877147</v>
       </c>
       <c r="D166" s="77">
-        <v>1406690</v>
+        <v>1407381</v>
       </c>
       <c r="F166" s="63"/>
     </row>
     <row r="167" spans="1:6" s="58" customFormat="1">
       <c r="A167" s="70" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B167" s="71">
-        <v>476564</v>
+        <v>477426</v>
       </c>
       <c r="C167" s="72">
-        <v>696526</v>
+        <v>696710</v>
       </c>
       <c r="D167" s="73">
-        <v>1173090</v>
+        <v>1174136</v>
       </c>
     </row>
     <row r="168" spans="1:6">
       <c r="A168" s="82" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B168" s="83">
-        <v>444785</v>
+        <v>445409</v>
       </c>
       <c r="C168" s="84">
-        <v>600115</v>
+        <v>600237</v>
       </c>
       <c r="D168" s="85">
-        <v>1044900</v>
+        <v>1045646</v>
       </c>
     </row>
     <row r="169" spans="1:6">
       <c r="A169" s="78" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B169" s="79">
-        <v>155343</v>
+        <v>155385</v>
       </c>
       <c r="C169" s="80">
-        <v>276054</v>
+        <v>276079</v>
       </c>
       <c r="D169" s="81">
-        <v>431397</v>
+        <v>431464</v>
       </c>
     </row>
     <row r="170" spans="1:6">
       <c r="A170" s="90" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B170" s="91">
-        <v>78089</v>
+        <v>78096</v>
       </c>
       <c r="C170" s="92">
-        <v>204328</v>
+        <v>204321</v>
       </c>
       <c r="D170" s="93">
         <v>282417</v>
@@ -9008,325 +9116,344 @@
     </row>
     <row r="171" spans="1:6">
       <c r="A171" s="86" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B171" s="87">
-        <v>260241</v>
+        <v>260707</v>
       </c>
       <c r="C171" s="88">
-        <v>383317</v>
+        <v>383465</v>
       </c>
       <c r="D171" s="89">
-        <v>643558</v>
+        <v>644172</v>
       </c>
     </row>
     <row r="172" spans="1:6">
       <c r="A172" s="98" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B172" s="99">
-        <v>392496</v>
+        <v>392989</v>
       </c>
       <c r="C172" s="100">
-        <v>637786</v>
+        <v>638122</v>
       </c>
       <c r="D172" s="101">
-        <v>1030282</v>
+        <v>1031111</v>
       </c>
     </row>
     <row r="173" spans="1:6">
       <c r="A173" s="94" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B173" s="95">
-        <v>525389</v>
+        <v>525996</v>
       </c>
       <c r="C173" s="96">
-        <v>836200</v>
+        <v>836295</v>
       </c>
       <c r="D173" s="97">
-        <v>1361589</v>
+        <v>1362291</v>
       </c>
     </row>
     <row r="174" spans="1:6">
       <c r="A174" s="106" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B174" s="107">
-        <v>449635</v>
+        <v>450778</v>
       </c>
       <c r="C174" s="108">
-        <v>676462</v>
+        <v>676724</v>
       </c>
       <c r="D174" s="109">
-        <v>1126097</v>
+        <v>1127502</v>
       </c>
     </row>
     <row r="175" spans="1:6">
       <c r="A175" s="102" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B175" s="103">
-        <v>397363</v>
+        <v>398424</v>
       </c>
       <c r="C175" s="104">
-        <v>573894</v>
+        <v>574505</v>
       </c>
       <c r="D175" s="105">
-        <v>971257</v>
+        <v>972929</v>
       </c>
     </row>
     <row r="176" spans="1:6">
       <c r="A176" s="114" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B176" s="115">
-        <v>136411</v>
+        <v>136752</v>
       </c>
       <c r="C176" s="116">
-        <v>285967</v>
+        <v>286143</v>
       </c>
       <c r="D176" s="117">
-        <v>422378</v>
+        <v>422895</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="110" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B177" s="111">
-        <v>79831</v>
+        <v>79853</v>
       </c>
       <c r="C177" s="112">
-        <v>213750</v>
+        <v>213745</v>
       </c>
       <c r="D177" s="113">
-        <v>293581</v>
+        <v>293598</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="122" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B178" s="123">
-        <v>236075</v>
+        <v>237078</v>
       </c>
       <c r="C178" s="124">
-        <v>381828</v>
+        <v>381893</v>
       </c>
       <c r="D178" s="125">
-        <v>617903</v>
+        <v>618971</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="118" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B179" s="119">
-        <v>392513</v>
+        <v>394005</v>
       </c>
       <c r="C179" s="120">
-        <v>663868</v>
+        <v>664136</v>
       </c>
       <c r="D179" s="121">
-        <v>1056381</v>
+        <v>1058141</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="130" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B180" s="131">
-        <v>503715</v>
+        <v>505218</v>
       </c>
       <c r="C180" s="132">
-        <v>808860</v>
+        <v>809255</v>
       </c>
       <c r="D180" s="133">
-        <v>1312575</v>
+        <v>1314473</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="126" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B181" s="127">
-        <v>509070</v>
+        <v>510985</v>
       </c>
       <c r="C181" s="128">
-        <v>503730</v>
+        <v>503978</v>
       </c>
       <c r="D181" s="129">
-        <v>1012800</v>
+        <v>1014963</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="138" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B182" s="139">
-        <v>401797</v>
+        <v>402771</v>
       </c>
       <c r="C182" s="140">
-        <v>497169</v>
+        <v>497416</v>
       </c>
       <c r="D182" s="141">
-        <v>898966</v>
+        <v>900187</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="134" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B183" s="135">
-        <v>143143</v>
+        <v>143431</v>
       </c>
       <c r="C183" s="136">
-        <v>257369</v>
+        <v>257434</v>
       </c>
       <c r="D183" s="137">
-        <v>400512</v>
+        <v>400865</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="146" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B184" s="147">
-        <v>92792</v>
+        <v>92788</v>
       </c>
       <c r="C184" s="148">
-        <v>197126</v>
+        <v>197122</v>
       </c>
       <c r="D184" s="149">
-        <v>289918</v>
+        <v>289910</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B185" s="143">
-        <v>258560</v>
+        <v>259162</v>
       </c>
       <c r="C185" s="144">
-        <v>358056</v>
+        <v>358218</v>
       </c>
       <c r="D185" s="145">
-        <v>616616</v>
+        <v>617380</v>
       </c>
     </row>
     <row r="186" spans="1:4">
-      <c r="A186" s="162" t="s">
-        <v>262</v>
-      </c>
-      <c r="B186" s="163">
-        <v>398156</v>
-      </c>
-      <c r="C186" s="164">
-        <v>515949</v>
-      </c>
-      <c r="D186" s="165">
-        <v>914105</v>
+      <c r="A186" s="154" t="s">
+        <v>260</v>
+      </c>
+      <c r="B186" s="155">
+        <v>399470</v>
+      </c>
+      <c r="C186" s="156">
+        <v>516603</v>
+      </c>
+      <c r="D186" s="157">
+        <v>916073</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="150" t="s">
+        <v>261</v>
+      </c>
+      <c r="B187" s="151">
+        <v>459135</v>
+      </c>
+      <c r="C187" s="152">
+        <v>542900</v>
+      </c>
+      <c r="D187" s="153">
+        <v>1002035</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="170" t="s">
+        <v>262</v>
+      </c>
+      <c r="B188" s="171">
+        <v>462861</v>
+      </c>
+      <c r="C188" s="172">
+        <v>500779</v>
+      </c>
+      <c r="D188" s="173">
+        <v>963640</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="158" t="s">
         <v>263</v>
       </c>
-      <c r="B187" s="151">
-        <v>455913</v>
-      </c>
-      <c r="C187" s="152">
-        <v>542159</v>
-      </c>
-      <c r="D187" s="153">
-        <v>998072</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4">
-      <c r="A188" s="166" t="s">
+      <c r="B189" s="159">
+        <v>387753</v>
+      </c>
+      <c r="C189" s="160">
+        <v>435430</v>
+      </c>
+      <c r="D189" s="161">
+        <v>823183</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="174" t="s">
         <v>264</v>
       </c>
-      <c r="B188" s="167">
-        <v>459235</v>
-      </c>
-      <c r="C188" s="168">
-        <v>499330</v>
-      </c>
-      <c r="D188" s="169">
-        <v>958565</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4">
-      <c r="A189" s="154" t="s">
+      <c r="B190" s="175">
+        <v>159949</v>
+      </c>
+      <c r="C190" s="176">
+        <v>207810</v>
+      </c>
+      <c r="D190" s="177">
+        <v>367759</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="162" t="s">
         <v>265</v>
       </c>
-      <c r="B189" s="155">
-        <v>378910</v>
-      </c>
-      <c r="C189" s="156">
-        <v>431323</v>
-      </c>
-      <c r="D189" s="157">
-        <v>810233</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4">
-      <c r="A190" s="170" t="s">
+      <c r="B191" s="163">
+        <v>100399</v>
+      </c>
+      <c r="C191" s="164">
+        <v>169144</v>
+      </c>
+      <c r="D191" s="165">
+        <v>269543</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="178" t="s">
         <v>266</v>
       </c>
-      <c r="B190" s="171">
-        <v>156705</v>
-      </c>
-      <c r="C190" s="172">
-        <v>206345</v>
-      </c>
-      <c r="D190" s="173">
-        <v>363050</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4">
-      <c r="A191" s="158" t="s">
+      <c r="B192" s="179">
+        <v>190465</v>
+      </c>
+      <c r="C192" s="180">
+        <v>288771</v>
+      </c>
+      <c r="D192" s="181">
+        <v>479236</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="166" t="s">
         <v>267</v>
       </c>
-      <c r="B191" s="159">
-        <v>95817</v>
-      </c>
-      <c r="C191" s="160">
-        <v>157529</v>
-      </c>
-      <c r="D191" s="161">
-        <v>253346</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4">
-      <c r="A192" s="174" t="s">
+      <c r="B193" s="167">
+        <v>47213139</v>
+      </c>
+      <c r="C193" s="168">
+        <v>30679275</v>
+      </c>
+      <c r="D193" s="169">
+        <v>77892414</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" t="s">
         <v>268</v>
       </c>
-      <c r="B192" s="175">
-        <v>46970794</v>
-      </c>
-      <c r="C192" s="176">
-        <v>30361413</v>
-      </c>
-      <c r="D192" s="177">
-        <v>77332207</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
-      <c r="A193" t="s">
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="194" spans="1:1">
-      <c r="A194" t="s">
+    <row r="196" spans="1:4">
+      <c r="A196" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="195" spans="1:1">
-      <c r="A195" t="s">
-        <v>271</v>
+    <row r="198" spans="1:4">
+      <c r="A198" s="182" t="s">
+        <v>276</v>
       </c>
     </row>
   </sheetData>
